--- a/results/mp/tinybert/corona/confidence/210/stop-words-topk-0.1/percents/scores-5.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-topk-0.1/percents/scores-5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="155">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,121 +52,124 @@
     <t>killed</t>
   </si>
   <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>killing</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
     <t>die</t>
   </si>
   <si>
-    <t>death</t>
+    <t>war</t>
+  </si>
+  <si>
+    <t>threat</t>
+  </si>
+  <si>
+    <t>awful</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
-    <t>killing</t>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>fears</t>
   </si>
   <si>
     <t>shit</t>
   </si>
   <si>
-    <t>war</t>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>suffering</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>arrested</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>scared</t>
+  </si>
+  <si>
+    <t>banned</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>suffer</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>horrible</t>
   </si>
   <si>
     <t>threats</t>
   </si>
   <si>
-    <t>threat</t>
-  </si>
-  <si>
-    <t>awful</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>attack</t>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>mother</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>suffering</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>stress</t>
-  </si>
-  <si>
-    <t>arrested</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>inc</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>crash</t>
-  </si>
-  <si>
-    <t>suffer</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>isolation</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>bad</t>
+    <t>shortages</t>
+  </si>
+  <si>
+    <t>shortage</t>
   </si>
   <si>
     <t>stop</t>
   </si>
   <si>
-    <t>lock</t>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>corona</t>
   </si>
   <si>
     <t>0.95-negative</t>
@@ -184,21 +187,21 @@
     <t>good</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>credit</t>
-  </si>
-  <si>
     <t>wise</t>
   </si>
   <si>
@@ -211,205 +214,226 @@
     <t>treat</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
     <t>giving</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>beauty</t>
+    <t>small</t>
+  </si>
+  <si>
+    <t>investing</t>
+  </si>
+  <si>
+    <t>bless</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>chicago</t>
+  </si>
+  <si>
+    <t>toronto</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>effective</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>appreciation</t>
+  </si>
+  <si>
+    <t>cool</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>dedicated</t>
+  </si>
+  <si>
+    <t>likes</t>
+  </si>
+  <si>
+    <t>drivers</t>
+  </si>
+  <si>
+    <t>affordable</t>
+  </si>
+  <si>
+    <t>pure</t>
+  </si>
+  <si>
+    <t>bonus</t>
+  </si>
+  <si>
+    <t>trust</t>
+  </si>
+  <si>
+    <t>interest</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>party</t>
+  </si>
+  <si>
+    <t>encourage</t>
+  </si>
+  <si>
+    <t>valuable</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>overall</t>
+  </si>
+  <si>
+    <t>selling</t>
+  </si>
+  <si>
+    <t>card</t>
+  </si>
+  <si>
+    <t>experts</t>
+  </si>
+  <si>
+    <t>wash</t>
+  </si>
+  <si>
+    <t>give</t>
   </si>
   <si>
     <t>fair</t>
   </si>
   <si>
+    <t>created</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>changed</t>
+  </si>
+  <si>
     <t>insight</t>
   </si>
   <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>focus</t>
   </si>
   <si>
     <t>shares</t>
   </si>
   <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>investing</t>
-  </si>
-  <si>
-    <t>bless</t>
-  </si>
-  <si>
-    <t>eating</t>
-  </si>
-  <si>
-    <t>donation</t>
-  </si>
-  <si>
-    <t>purchases</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>effective</t>
-  </si>
-  <si>
-    <t>gloves</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>stable</t>
-  </si>
-  <si>
-    <t>appreciation</t>
-  </si>
-  <si>
-    <t>marketplace</t>
-  </si>
-  <si>
-    <t>cool</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>create</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>added</t>
-  </si>
-  <si>
-    <t>dedicated</t>
-  </si>
-  <si>
-    <t>likes</t>
-  </si>
-  <si>
-    <t>drivers</t>
-  </si>
-  <si>
-    <t>bonus</t>
-  </si>
-  <si>
-    <t>trust</t>
-  </si>
-  <si>
-    <t>facilities</t>
-  </si>
-  <si>
-    <t>manage</t>
-  </si>
-  <si>
-    <t>interest</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>agree</t>
-  </si>
-  <si>
-    <t>agreed</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>selling</t>
-  </si>
-  <si>
-    <t>card</t>
-  </si>
-  <si>
-    <t>experts</t>
-  </si>
-  <si>
-    <t>challenges</t>
-  </si>
-  <si>
-    <t>protections</t>
-  </si>
-  <si>
-    <t>certain</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>decided</t>
-  </si>
-  <si>
-    <t>light</t>
-  </si>
-  <si>
-    <t>times</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
     <t>idea</t>
   </si>
   <si>
     <t>update</t>
   </si>
   <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>major</t>
+  </si>
+  <si>
+    <t>head</t>
+  </si>
+  <si>
     <t>businesses</t>
   </si>
   <si>
     <t>tested</t>
   </si>
   <si>
+    <t>spending</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
     <t>key</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>small</t>
+    <t>could</t>
   </si>
   <si>
     <t>business</t>
@@ -421,19 +445,19 @@
     <t>latest</t>
   </si>
   <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>get</t>
+    <t>going</t>
   </si>
   <si>
     <t>shopping</t>
   </si>
   <si>
-    <t>san</t>
-  </si>
-  <si>
     <t>store</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
   <si>
     <t>0.95-positive</t>
@@ -812,7 +836,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BS90"/>
+  <dimension ref="A1:BS97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -820,28 +844,28 @@
   <sheetData>
     <row r="1" spans="1:71">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="S1" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="AB1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="AK1" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="AT1" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="BC1" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="BL1" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:71">
@@ -1043,13 +1067,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.01219290010293213</v>
+        <v>0.01403411618268963</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1061,19 +1085,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K3">
-        <v>0.00714412018558842</v>
+        <v>0.006232979645907607</v>
       </c>
       <c r="L3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -1085,19 +1109,19 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="T3">
-        <v>0.01352784936003678</v>
+        <v>0.08918589509658521</v>
       </c>
       <c r="U3">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="V3">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -1109,19 +1133,19 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AC3">
-        <v>0.008337301256971614</v>
+        <v>0.0252675337233731</v>
       </c>
       <c r="AD3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF3">
         <v>1</v>
@@ -1133,19 +1157,19 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AK3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AL3">
-        <v>0.01547892904349743</v>
+        <v>0.06195041921437468</v>
       </c>
       <c r="AM3">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AN3">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AO3">
         <v>0</v>
@@ -1157,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AU3">
-        <v>0.05371936774325075</v>
+        <v>0.0192694096475813</v>
       </c>
       <c r="AV3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AW3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AX3">
         <v>1</v>
@@ -1181,19 +1205,19 @@
         <v>0</v>
       </c>
       <c r="BA3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BC3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BD3">
-        <v>0.01860065653703446</v>
+        <v>0.04963273662133322</v>
       </c>
       <c r="BE3">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="BF3">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="BG3">
         <v>0</v>
@@ -1205,19 +1229,19 @@
         <v>0</v>
       </c>
       <c r="BJ3">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="BM3">
-        <v>0.04347187309433193</v>
+        <v>0.01669782974515747</v>
       </c>
       <c r="BN3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BO3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BP3">
         <v>1</v>
@@ -1229,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="BS3">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:71">
@@ -1237,7 +1261,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.005512063431855159</v>
+        <v>0.005502349308206338</v>
       </c>
       <c r="C4">
         <v>11</v>
@@ -1258,16 +1282,16 @@
         <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K4">
-        <v>0.006256239950579855</v>
+        <v>0.005345490438755039</v>
       </c>
       <c r="L4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1279,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="T4">
-        <v>0.006454111910693855</v>
+        <v>0.04472636654085469</v>
       </c>
       <c r="U4">
         <v>11</v>
@@ -1306,16 +1330,16 @@
         <v>4</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AC4">
-        <v>0.007319528843752602</v>
+        <v>0.02269947274999049</v>
       </c>
       <c r="AD4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AF4">
         <v>1</v>
@@ -1327,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AK4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AL4">
-        <v>0.007830951995150411</v>
+        <v>0.03659198577979254</v>
       </c>
       <c r="AM4">
         <v>11</v>
@@ -1354,16 +1378,16 @@
         <v>4</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AU4">
-        <v>0.0475422791502167</v>
+        <v>0.01778364452723532</v>
       </c>
       <c r="AV4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AW4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AX4">
         <v>1</v>
@@ -1375,13 +1399,13 @@
         <v>0</v>
       </c>
       <c r="BA4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BC4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BD4">
-        <v>0.0100338961302809</v>
+        <v>0.03291308107700554</v>
       </c>
       <c r="BE4">
         <v>11</v>
@@ -1402,16 +1426,16 @@
         <v>4</v>
       </c>
       <c r="BL4" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="BM4">
-        <v>0.03890430753935109</v>
+        <v>0.01567607807784734</v>
       </c>
       <c r="BN4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BO4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BP4">
         <v>1</v>
@@ -1423,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="BS4">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:71">
@@ -1431,13 +1455,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.003625072668733563</v>
+        <v>0.00408436688973552</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1449,13 +1473,13 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K5">
-        <v>0.004036539363058441</v>
+        <v>0.004034811823865814</v>
       </c>
       <c r="L5">
         <v>8</v>
@@ -1479,13 +1503,13 @@
         <v>10</v>
       </c>
       <c r="T5">
-        <v>0.004066968916072325</v>
+        <v>0.03610495830720016</v>
       </c>
       <c r="U5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -1497,13 +1521,13 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC5">
-        <v>0.004775097810705069</v>
+        <v>0.01909386048699351</v>
       </c>
       <c r="AD5">
         <v>8</v>
@@ -1527,13 +1551,13 @@
         <v>10</v>
       </c>
       <c r="AL5">
-        <v>0.004712817277567441</v>
+        <v>0.03084244915531904</v>
       </c>
       <c r="AM5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO5">
         <v>0</v>
@@ -1545,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="AR5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU5">
-        <v>0.03209955766763158</v>
+        <v>0.01581386731985397</v>
       </c>
       <c r="AV5">
         <v>8</v>
@@ -1572,34 +1596,34 @@
         <v>0</v>
       </c>
       <c r="BC5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BD5">
+        <v>0.02846239463906264</v>
+      </c>
+      <c r="BE5">
+        <v>8</v>
+      </c>
+      <c r="BF5">
+        <v>8</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>1</v>
+      </c>
+      <c r="BI5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
         <v>11</v>
       </c>
-      <c r="BD5">
-        <v>0.00604009794591589</v>
-      </c>
-      <c r="BE5">
-        <v>6</v>
-      </c>
-      <c r="BF5">
-        <v>6</v>
-      </c>
-      <c r="BG5">
-        <v>0</v>
-      </c>
-      <c r="BH5">
-        <v>1</v>
-      </c>
-      <c r="BI5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ5">
-        <v>0</v>
-      </c>
       <c r="BL5" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="BM5">
-        <v>0.02748539365189897</v>
+        <v>0.01440763357041456</v>
       </c>
       <c r="BN5">
         <v>8</v>
@@ -1625,7 +1649,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.003225212012612985</v>
+        <v>0.003219553127793519</v>
       </c>
       <c r="C6">
         <v>6</v>
@@ -1646,16 +1670,16 @@
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K6">
-        <v>0.004031404574868454</v>
+        <v>0.003575650823409808</v>
       </c>
       <c r="L6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1667,13 +1691,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="T6">
-        <v>0.00381164658205109</v>
+        <v>0.03217684903475807</v>
       </c>
       <c r="U6">
         <v>6</v>
@@ -1694,16 +1718,16 @@
         <v>0</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC6">
-        <v>0.00475070756680263</v>
+        <v>0.01762497060249449</v>
       </c>
       <c r="AD6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF6">
         <v>1</v>
@@ -1715,13 +1739,13 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="AL6">
-        <v>0.004668743260460628</v>
+        <v>0.02899262714533767</v>
       </c>
       <c r="AM6">
         <v>6</v>
@@ -1742,16 +1766,16 @@
         <v>0</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AU6">
-        <v>0.03183084619091331</v>
+        <v>0.01487683190482775</v>
       </c>
       <c r="AV6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX6">
         <v>1</v>
@@ -1763,44 +1787,44 @@
         <v>0</v>
       </c>
       <c r="BA6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD6">
-        <v>0.005746174655959624</v>
+        <v>0.02755251151419079</v>
       </c>
       <c r="BE6">
+        <v>6</v>
+      </c>
+      <c r="BF6">
+        <v>6</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>1</v>
+      </c>
+      <c r="BI6" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BL6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM6">
+        <v>0.01369862049161018</v>
+      </c>
+      <c r="BN6">
         <v>7</v>
       </c>
-      <c r="BF6">
+      <c r="BO6">
         <v>7</v>
       </c>
-      <c r="BG6">
-        <v>0</v>
-      </c>
-      <c r="BH6">
-        <v>1</v>
-      </c>
-      <c r="BI6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ6">
-        <v>12</v>
-      </c>
-      <c r="BL6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BM6">
-        <v>0.02719054969781009</v>
-      </c>
-      <c r="BN6">
-        <v>8</v>
-      </c>
-      <c r="BO6">
-        <v>8</v>
-      </c>
       <c r="BP6">
         <v>1</v>
       </c>
@@ -1811,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="BS6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:71">
@@ -1819,13 +1843,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.00276373389821256</v>
+        <v>0.002293073778332633</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1837,13 +1861,13 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K7">
-        <v>0.003582329669174184</v>
+        <v>0.003570512024449901</v>
       </c>
       <c r="L7">
         <v>7</v>
@@ -1861,19 +1885,19 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="T7">
-        <v>0.003263641321200586</v>
+        <v>0.02685508308572463</v>
       </c>
       <c r="U7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -1885,13 +1909,13 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AC7">
-        <v>0.004217431116290685</v>
+        <v>0.01756335080322526</v>
       </c>
       <c r="AD7">
         <v>7</v>
@@ -1909,19 +1933,19 @@
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AL7">
-        <v>0.003994275247106162</v>
+        <v>0.02562375648369598</v>
       </c>
       <c r="AM7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO7">
         <v>0</v>
@@ -1933,13 +1957,13 @@
         <v>0</v>
       </c>
       <c r="AR7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AU7">
-        <v>0.02847359041767802</v>
+        <v>0.01481211428654334</v>
       </c>
       <c r="AV7">
         <v>7</v>
@@ -1957,19 +1981,19 @@
         <v>0</v>
       </c>
       <c r="BA7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BC7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="BD7">
-        <v>0.005163289528555084</v>
+        <v>0.02506686919750526</v>
       </c>
       <c r="BE7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BF7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BG7">
         <v>0</v>
@@ -1981,13 +2005,13 @@
         <v>0</v>
       </c>
       <c r="BJ7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL7" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BM7">
-        <v>0.02461192296623079</v>
+        <v>0.01363257474322708</v>
       </c>
       <c r="BN7">
         <v>7</v>
@@ -2005,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="BS7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:71">
@@ -2013,13 +2037,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.002271447054672213</v>
+        <v>0.001837542302042051</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2031,19 +2055,19 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8">
+        <v>0.003131906219833524</v>
+      </c>
+      <c r="L8">
         <v>6</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8">
-        <v>0.00357206009279421</v>
-      </c>
-      <c r="L8">
-        <v>7</v>
-      </c>
       <c r="M8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -2055,19 +2079,19 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="T8">
-        <v>0.002569294596935447</v>
+        <v>0.02436840719578183</v>
       </c>
       <c r="U8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W8">
         <v>0</v>
@@ -2079,19 +2103,19 @@
         <v>0</v>
       </c>
       <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC8">
+        <v>0.01634094011580319</v>
+      </c>
+      <c r="AD8">
         <v>6</v>
       </c>
-      <c r="AB8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC8">
-        <v>0.004168650628485807</v>
-      </c>
-      <c r="AD8">
-        <v>7</v>
-      </c>
       <c r="AE8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF8">
         <v>1</v>
@@ -2103,19 +2127,19 @@
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="AL8">
-        <v>0.003004610235627868</v>
+        <v>0.02412920223433268</v>
       </c>
       <c r="AM8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO8">
         <v>0</v>
@@ -2127,19 +2151,19 @@
         <v>0</v>
       </c>
       <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU8">
+        <v>0.01413394934465475</v>
+      </c>
+      <c r="AV8">
         <v>6</v>
       </c>
-      <c r="AT8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU8">
-        <v>0.02793616746424148</v>
-      </c>
-      <c r="AV8">
-        <v>7</v>
-      </c>
       <c r="AW8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX8">
         <v>1</v>
@@ -2151,19 +2175,19 @@
         <v>0</v>
       </c>
       <c r="BA8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BC8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="BD8">
-        <v>0.003701115257535741</v>
+        <v>0.02402101793813921</v>
       </c>
       <c r="BE8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BF8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG8">
         <v>0</v>
@@ -2175,19 +2199,19 @@
         <v>0</v>
       </c>
       <c r="BJ8">
+        <v>0</v>
+      </c>
+      <c r="BL8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BM8">
+        <v>0.01318774465795512</v>
+      </c>
+      <c r="BN8">
         <v>6</v>
       </c>
-      <c r="BL8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BM8">
-        <v>0.02402223505805305</v>
-      </c>
-      <c r="BN8">
-        <v>7</v>
-      </c>
       <c r="BO8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BP8">
         <v>1</v>
@@ -2199,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="BS8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:71">
@@ -2207,7 +2231,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.001840777669411711</v>
+        <v>0.001832403503082144</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -2225,19 +2249,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K9">
-        <v>0.002240239740281362</v>
+        <v>0.003126767420873617</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -2249,13 +2273,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="T9">
-        <v>0.002167630799499577</v>
+        <v>0.02425226913939922</v>
       </c>
       <c r="U9">
         <v>3</v>
@@ -2273,19 +2297,19 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC9">
-        <v>0.002641992008657288</v>
+        <v>0.01627932031653395</v>
       </c>
       <c r="AD9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AF9">
         <v>1</v>
@@ -2297,13 +2321,13 @@
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="AL9">
-        <v>0.002645339220397229</v>
+        <v>0.02400261484669432</v>
       </c>
       <c r="AM9">
         <v>3</v>
@@ -2321,19 +2345,19 @@
         <v>0</v>
       </c>
       <c r="AR9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AU9">
-        <v>0.01867053457469041</v>
+        <v>0.01406923172637035</v>
       </c>
       <c r="AV9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX9">
         <v>1</v>
@@ -2345,13 +2369,13 @@
         <v>0</v>
       </c>
       <c r="BA9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="BD9">
-        <v>0.003409672693833471</v>
+        <v>0.02388970467215473</v>
       </c>
       <c r="BE9">
         <v>3</v>
@@ -2369,19 +2393,19 @@
         <v>0</v>
       </c>
       <c r="BJ9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL9" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BM9">
-        <v>0.01717088672558178</v>
+        <v>0.01312169890957201</v>
       </c>
       <c r="BN9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BO9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BP9">
         <v>1</v>
@@ -2393,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="BS9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:71">
@@ -2401,7 +2425,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.001840777669411711</v>
+        <v>0.001832403503082144</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -2419,13 +2443,13 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K10">
-        <v>0.002240239740281362</v>
+        <v>0.002239278213721049</v>
       </c>
       <c r="L10">
         <v>4</v>
@@ -2449,7 +2473,7 @@
         <v>15</v>
       </c>
       <c r="T10">
-        <v>0.002167630799499577</v>
+        <v>0.02425226913939922</v>
       </c>
       <c r="U10">
         <v>3</v>
@@ -2467,13 +2491,13 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AC10">
-        <v>0.002641992008657288</v>
+        <v>0.01371125934315134</v>
       </c>
       <c r="AD10">
         <v>4</v>
@@ -2497,7 +2521,7 @@
         <v>15</v>
       </c>
       <c r="AL10">
-        <v>0.002645339220397229</v>
+        <v>0.02400261484669432</v>
       </c>
       <c r="AM10">
         <v>3</v>
@@ -2515,13 +2539,13 @@
         <v>0</v>
       </c>
       <c r="AR10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT10" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AU10">
-        <v>0.01867053457469041</v>
+        <v>0.01258346660602436</v>
       </c>
       <c r="AV10">
         <v>4</v>
@@ -2545,7 +2569,7 @@
         <v>15</v>
       </c>
       <c r="BD10">
-        <v>0.003409672693833471</v>
+        <v>0.02388970467215473</v>
       </c>
       <c r="BE10">
         <v>3</v>
@@ -2563,13 +2587,13 @@
         <v>0</v>
       </c>
       <c r="BJ10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL10" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BM10">
-        <v>0.01717088672558178</v>
+        <v>0.01209994724226188</v>
       </c>
       <c r="BN10">
         <v>4</v>
@@ -2595,7 +2619,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.001835642881221724</v>
+        <v>0.001827264704122237</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -2613,13 +2637,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K11">
-        <v>0.0022248353757114</v>
+        <v>0.002239278213721049</v>
       </c>
       <c r="L11">
         <v>4</v>
@@ -2637,13 +2661,13 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="T11">
-        <v>0.002143240555597138</v>
+        <v>0.02413613108301661</v>
       </c>
       <c r="U11">
         <v>3</v>
@@ -2661,13 +2685,13 @@
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AC11">
-        <v>0.002568821276949971</v>
+        <v>0.01371125934315134</v>
       </c>
       <c r="AD11">
         <v>4</v>
@@ -2685,13 +2709,13 @@
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AL11">
-        <v>0.002592806387376591</v>
+        <v>0.02387602745905596</v>
       </c>
       <c r="AM11">
         <v>3</v>
@@ -2709,13 +2733,13 @@
         <v>0</v>
       </c>
       <c r="AR11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT11" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AU11">
-        <v>0.01786440014453561</v>
+        <v>0.01258346660602436</v>
       </c>
       <c r="AV11">
         <v>4</v>
@@ -2733,13 +2757,13 @@
         <v>0</v>
       </c>
       <c r="BA11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BC11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="BD11">
-        <v>0.003312111718223714</v>
+        <v>0.02375839140617026</v>
       </c>
       <c r="BE11">
         <v>3</v>
@@ -2757,13 +2781,13 @@
         <v>0</v>
       </c>
       <c r="BJ11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL11" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BM11">
-        <v>0.01628635486331517</v>
+        <v>0.01209994724226188</v>
       </c>
       <c r="BN11">
         <v>4</v>
@@ -2781,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="BS11">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:71">
@@ -2789,7 +2813,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.001830508093031737</v>
+        <v>0.001801570709322701</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -2807,13 +2831,13 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K12">
-        <v>0.001791164834587092</v>
+        <v>0.001790394811184858</v>
       </c>
       <c r="L12">
         <v>3</v>
@@ -2837,7 +2861,7 @@
         <v>17</v>
       </c>
       <c r="T12">
-        <v>0.0021188503116947</v>
+        <v>0.02355544080110355</v>
       </c>
       <c r="U12">
         <v>3</v>
@@ -2855,13 +2879,13 @@
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC12">
-        <v>0.002108715558145343</v>
+        <v>0.0123656090571908</v>
       </c>
       <c r="AD12">
         <v>3</v>
@@ -2885,7 +2909,7 @@
         <v>17</v>
       </c>
       <c r="AL12">
-        <v>0.002540273554355953</v>
+        <v>0.02324309052086416</v>
       </c>
       <c r="AM12">
         <v>3</v>
@@ -2903,13 +2927,13 @@
         <v>0</v>
       </c>
       <c r="AR12">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AT12" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AU12">
-        <v>0.01531327880145512</v>
+        <v>0.01177586642756696</v>
       </c>
       <c r="AV12">
         <v>3</v>
@@ -2933,7 +2957,7 @@
         <v>17</v>
       </c>
       <c r="BD12">
-        <v>0.003214550742613959</v>
+        <v>0.02310182507624789</v>
       </c>
       <c r="BE12">
         <v>3</v>
@@ -2951,13 +2975,13 @@
         <v>0</v>
       </c>
       <c r="BJ12">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BL12" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BM12">
-        <v>0.01459225999400248</v>
+        <v>0.01152302566022371</v>
       </c>
       <c r="BN12">
         <v>3</v>
@@ -2983,7 +3007,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.001804834152081801</v>
+        <v>0.001801570709322701</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -3004,10 +3028,10 @@
         <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K13">
-        <v>0.001791164834587092</v>
+        <v>0.001790394811184858</v>
       </c>
       <c r="L13">
         <v>3</v>
@@ -3031,7 +3055,7 @@
         <v>18</v>
       </c>
       <c r="T13">
-        <v>0.001996899092182505</v>
+        <v>0.02355544080110355</v>
       </c>
       <c r="U13">
         <v>3</v>
@@ -3052,10 +3076,10 @@
         <v>7</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC13">
-        <v>0.002108715558145343</v>
+        <v>0.0123656090571908</v>
       </c>
       <c r="AD13">
         <v>3</v>
@@ -3079,7 +3103,7 @@
         <v>18</v>
       </c>
       <c r="AL13">
-        <v>0.002277609389252764</v>
+        <v>0.02324309052086416</v>
       </c>
       <c r="AM13">
         <v>3</v>
@@ -3100,10 +3124,10 @@
         <v>7</v>
       </c>
       <c r="AT13" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AU13">
-        <v>0.01531327880145512</v>
+        <v>0.01177586642756696</v>
       </c>
       <c r="AV13">
         <v>3</v>
@@ -3127,7 +3151,7 @@
         <v>18</v>
       </c>
       <c r="BD13">
-        <v>0.002726745864565178</v>
+        <v>0.02310182507624789</v>
       </c>
       <c r="BE13">
         <v>3</v>
@@ -3148,10 +3172,10 @@
         <v>7</v>
       </c>
       <c r="BL13" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BM13">
-        <v>0.01459225999400248</v>
+        <v>0.01152302566022371</v>
       </c>
       <c r="BN13">
         <v>3</v>
@@ -3177,7 +3201,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.001379299555011287</v>
+        <v>0.001376872026791561</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -3198,10 +3222,10 @@
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K14">
-        <v>0.001791164834587092</v>
+        <v>0.001790394811184858</v>
       </c>
       <c r="L14">
         <v>3</v>
@@ -3225,7 +3249,7 @@
         <v>19</v>
       </c>
       <c r="T14">
-        <v>0.001619625538649074</v>
+        <v>0.02176559324945642</v>
       </c>
       <c r="U14">
         <v>2</v>
@@ -3246,10 +3270,10 @@
         <v>0</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AC14">
-        <v>0.002108715558145343</v>
+        <v>0.0123656090571908</v>
       </c>
       <c r="AD14">
         <v>3</v>
@@ -3273,7 +3297,7 @@
         <v>19</v>
       </c>
       <c r="AL14">
-        <v>0.001970871207042762</v>
+        <v>0.02250806059733101</v>
       </c>
       <c r="AM14">
         <v>2</v>
@@ -3294,10 +3318,10 @@
         <v>0</v>
       </c>
       <c r="AT14" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AU14">
-        <v>0.01531327880145512</v>
+        <v>0.01177586642756696</v>
       </c>
       <c r="AV14">
         <v>3</v>
@@ -3321,7 +3345,7 @@
         <v>19</v>
       </c>
       <c r="BD14">
-        <v>0.002532864276472664</v>
+        <v>0.02284385341278868</v>
       </c>
       <c r="BE14">
         <v>2</v>
@@ -3342,10 +3366,10 @@
         <v>0</v>
       </c>
       <c r="BL14" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BM14">
-        <v>0.01459225999400248</v>
+        <v>0.01152302566022371</v>
       </c>
       <c r="BN14">
         <v>3</v>
@@ -3371,7 +3395,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.001379299555011287</v>
+        <v>0.001376872026791561</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -3392,10 +3416,10 @@
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K15">
-        <v>0.001786030046397105</v>
+        <v>0.001785256012224951</v>
       </c>
       <c r="L15">
         <v>3</v>
@@ -3419,7 +3443,7 @@
         <v>20</v>
       </c>
       <c r="T15">
-        <v>0.001619625538649074</v>
+        <v>0.02176559324945642</v>
       </c>
       <c r="U15">
         <v>2</v>
@@ -3440,10 +3464,10 @@
         <v>0</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC15">
-        <v>0.002084325314242904</v>
+        <v>0.01230398925792157</v>
       </c>
       <c r="AD15">
         <v>3</v>
@@ -3467,7 +3491,7 @@
         <v>20</v>
       </c>
       <c r="AL15">
-        <v>0.001970871207042762</v>
+        <v>0.02250806059733101</v>
       </c>
       <c r="AM15">
         <v>2</v>
@@ -3488,10 +3512,10 @@
         <v>0</v>
       </c>
       <c r="AT15" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AU15">
-        <v>0.01504456732473685</v>
+        <v>0.01171114880928255</v>
       </c>
       <c r="AV15">
         <v>3</v>
@@ -3515,7 +3539,7 @@
         <v>20</v>
       </c>
       <c r="BD15">
-        <v>0.002532864276472664</v>
+        <v>0.02284385341278868</v>
       </c>
       <c r="BE15">
         <v>2</v>
@@ -3536,10 +3560,10 @@
         <v>0</v>
       </c>
       <c r="BL15" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="BM15">
-        <v>0.01429741603991361</v>
+        <v>0.01145697991184061</v>
       </c>
       <c r="BN15">
         <v>3</v>
@@ -3565,7 +3589,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.001379299555011287</v>
+        <v>0.001371733227831654</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -3583,13 +3607,13 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K16">
-        <v>0.001786030046397105</v>
+        <v>0.001785256012224951</v>
       </c>
       <c r="L16">
         <v>3</v>
@@ -3613,7 +3637,7 @@
         <v>21</v>
       </c>
       <c r="T16">
-        <v>0.001619625538649074</v>
+        <v>0.0216494551930738</v>
       </c>
       <c r="U16">
         <v>2</v>
@@ -3631,13 +3655,13 @@
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AC16">
-        <v>0.002084325314242904</v>
+        <v>0.01230398925792157</v>
       </c>
       <c r="AD16">
         <v>3</v>
@@ -3661,7 +3685,7 @@
         <v>21</v>
       </c>
       <c r="AL16">
-        <v>0.001970871207042762</v>
+        <v>0.02238147320969265</v>
       </c>
       <c r="AM16">
         <v>2</v>
@@ -3679,13 +3703,13 @@
         <v>0</v>
       </c>
       <c r="AR16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT16" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AU16">
-        <v>0.01504456732473685</v>
+        <v>0.01171114880928255</v>
       </c>
       <c r="AV16">
         <v>3</v>
@@ -3709,7 +3733,7 @@
         <v>21</v>
       </c>
       <c r="BD16">
-        <v>0.002532864276472664</v>
+        <v>0.0227125401468042</v>
       </c>
       <c r="BE16">
         <v>2</v>
@@ -3727,13 +3751,13 @@
         <v>0</v>
       </c>
       <c r="BJ16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL16" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BM16">
-        <v>0.01429741603991361</v>
+        <v>0.01145697991184061</v>
       </c>
       <c r="BN16">
         <v>3</v>
@@ -3759,7 +3783,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.001374164766821299</v>
+        <v>0.001371733227831654</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -3780,10 +3804,10 @@
         <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K17">
-        <v>0.001780895258207118</v>
+        <v>0.001780117213265044</v>
       </c>
       <c r="L17">
         <v>3</v>
@@ -3807,7 +3831,7 @@
         <v>22</v>
       </c>
       <c r="T17">
-        <v>0.001595235294746634</v>
+        <v>0.0216494551930738</v>
       </c>
       <c r="U17">
         <v>2</v>
@@ -3828,10 +3852,10 @@
         <v>1</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AC17">
-        <v>0.002059935070340464</v>
+        <v>0.01224236945865233</v>
       </c>
       <c r="AD17">
         <v>3</v>
@@ -3855,7 +3879,7 @@
         <v>22</v>
       </c>
       <c r="AL17">
-        <v>0.001918338374022124</v>
+        <v>0.02238147320969265</v>
       </c>
       <c r="AM17">
         <v>2</v>
@@ -3876,10 +3900,10 @@
         <v>1</v>
       </c>
       <c r="AT17" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AU17">
-        <v>0.01477585584801858</v>
+        <v>0.01164643119099814</v>
       </c>
       <c r="AV17">
         <v>3</v>
@@ -3903,7 +3927,7 @@
         <v>22</v>
       </c>
       <c r="BD17">
-        <v>0.002435303300862908</v>
+        <v>0.0227125401468042</v>
       </c>
       <c r="BE17">
         <v>2</v>
@@ -3924,10 +3948,10 @@
         <v>1</v>
       </c>
       <c r="BL17" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BM17">
-        <v>0.01400257208582474</v>
+        <v>0.0113909341634575</v>
       </c>
       <c r="BN17">
         <v>3</v>
@@ -3953,7 +3977,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.001374164766821299</v>
+        <v>0.001371733227831654</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -3974,10 +3998,10 @@
         <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K18">
-        <v>0.001780895258207118</v>
+        <v>0.001774978414305137</v>
       </c>
       <c r="L18">
         <v>3</v>
@@ -3995,13 +4019,13 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="T18">
-        <v>0.001595235294746634</v>
+        <v>0.0216494551930738</v>
       </c>
       <c r="U18">
         <v>2</v>
@@ -4022,10 +4046,10 @@
         <v>1</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AC18">
-        <v>0.002059935070340464</v>
+        <v>0.0121807496593831</v>
       </c>
       <c r="AD18">
         <v>3</v>
@@ -4043,13 +4067,13 @@
         <v>0</v>
       </c>
       <c r="AI18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="AL18">
-        <v>0.001918338374022124</v>
+        <v>0.02238147320969265</v>
       </c>
       <c r="AM18">
         <v>2</v>
@@ -4070,10 +4094,10 @@
         <v>1</v>
       </c>
       <c r="AT18" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AU18">
-        <v>0.01477585584801858</v>
+        <v>0.01158171357271373</v>
       </c>
       <c r="AV18">
         <v>3</v>
@@ -4091,13 +4115,13 @@
         <v>0</v>
       </c>
       <c r="BA18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="BD18">
-        <v>0.002435303300862908</v>
+        <v>0.0227125401468042</v>
       </c>
       <c r="BE18">
         <v>2</v>
@@ -4118,10 +4142,10 @@
         <v>1</v>
       </c>
       <c r="BL18" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="BM18">
-        <v>0.01400257208582474</v>
+        <v>0.0113248884150744</v>
       </c>
       <c r="BN18">
         <v>3</v>
@@ -4139,7 +4163,7 @@
         <v>0</v>
       </c>
       <c r="BS18">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:71">
@@ -4147,7 +4171,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.001369029978631312</v>
+        <v>0.001371733227831654</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -4165,19 +4189,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K19">
-        <v>0.001342089928892822</v>
+        <v>0.001605398048628202</v>
       </c>
       <c r="L19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -4189,13 +4213,13 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="T19">
-        <v>0.001570845050844195</v>
+        <v>0.0216494551930738</v>
       </c>
       <c r="U19">
         <v>2</v>
@@ -4213,13 +4237,13 @@
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AC19">
-        <v>0.001575439107633397</v>
+        <v>0.01101995877123026</v>
       </c>
       <c r="AD19">
         <v>2</v>
@@ -4243,7 +4267,7 @@
         <v>24</v>
       </c>
       <c r="AL19">
-        <v>0.001865805541001486</v>
+        <v>0.02238147320969265</v>
       </c>
       <c r="AM19">
         <v>2</v>
@@ -4261,13 +4285,13 @@
         <v>0</v>
       </c>
       <c r="AR19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT19" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AU19">
-        <v>0.01195602302821982</v>
+        <v>0.01096826624910955</v>
       </c>
       <c r="AV19">
         <v>2</v>
@@ -4291,7 +4315,7 @@
         <v>24</v>
       </c>
       <c r="BD19">
-        <v>0.002337742325253152</v>
+        <v>0.0227125401468042</v>
       </c>
       <c r="BE19">
         <v>2</v>
@@ -4309,13 +4333,13 @@
         <v>0</v>
       </c>
       <c r="BJ19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BL19" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="BM19">
-        <v>0.01201363326242319</v>
+        <v>0.01094610407818554</v>
       </c>
       <c r="BN19">
         <v>2</v>
@@ -4341,7 +4365,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.001363895190441325</v>
+        <v>0.00136145562991184</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -4362,10 +4386,10 @@
         <v>3</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K20">
-        <v>0.001342089928892822</v>
+        <v>0.001341511408648667</v>
       </c>
       <c r="L20">
         <v>2</v>
@@ -4389,7 +4413,7 @@
         <v>25</v>
       </c>
       <c r="T20">
-        <v>0.001546454806941756</v>
+        <v>0.02141717908030858</v>
       </c>
       <c r="U20">
         <v>2</v>
@@ -4410,10 +4434,10 @@
         <v>3</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AC20">
-        <v>0.001575439107633397</v>
+        <v>0.01101995877123026</v>
       </c>
       <c r="AD20">
         <v>2</v>
@@ -4437,7 +4461,7 @@
         <v>25</v>
       </c>
       <c r="AL20">
-        <v>0.001813272707980848</v>
+        <v>0.02212829843441593</v>
       </c>
       <c r="AM20">
         <v>2</v>
@@ -4458,10 +4482,10 @@
         <v>3</v>
       </c>
       <c r="AT20" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AU20">
-        <v>0.01195602302821982</v>
+        <v>0.01096826624910955</v>
       </c>
       <c r="AV20">
         <v>2</v>
@@ -4485,7 +4509,7 @@
         <v>25</v>
       </c>
       <c r="BD20">
-        <v>0.002240181349643396</v>
+        <v>0.02244991361483526</v>
       </c>
       <c r="BE20">
         <v>2</v>
@@ -4506,10 +4530,10 @@
         <v>3</v>
       </c>
       <c r="BL20" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="BM20">
-        <v>0.01201363326242319</v>
+        <v>0.01094610407818554</v>
       </c>
       <c r="BN20">
         <v>2</v>
@@ -4535,13 +4559,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.0009229562288008492</v>
+        <v>0.001346039233032119</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -4553,13 +4577,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K21">
-        <v>0.001342089928892822</v>
+        <v>0.001341511408648667</v>
       </c>
       <c r="L21">
         <v>2</v>
@@ -4583,13 +4607,13 @@
         <v>26</v>
       </c>
       <c r="T21">
-        <v>0.001096010521701008</v>
+        <v>0.02106876491116074</v>
       </c>
       <c r="U21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W21">
         <v>0</v>
@@ -4601,13 +4625,13 @@
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC21">
-        <v>0.001575439107633397</v>
+        <v>0.01101995877123026</v>
       </c>
       <c r="AD21">
         <v>2</v>
@@ -4631,13 +4655,13 @@
         <v>26</v>
       </c>
       <c r="AL21">
-        <v>0.001348936026708933</v>
+        <v>0.02174853627150086</v>
       </c>
       <c r="AM21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO21">
         <v>0</v>
@@ -4649,13 +4673,13 @@
         <v>0</v>
       </c>
       <c r="AR21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AT21" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AU21">
-        <v>0.01195602302821982</v>
+        <v>0.01096826624910955</v>
       </c>
       <c r="AV21">
         <v>2</v>
@@ -4679,13 +4703,13 @@
         <v>26</v>
       </c>
       <c r="BD21">
-        <v>0.001753616834721613</v>
+        <v>0.02205597381688184</v>
       </c>
       <c r="BE21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG21">
         <v>0</v>
@@ -4697,13 +4721,13 @@
         <v>0</v>
       </c>
       <c r="BJ21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BL21" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="BM21">
-        <v>0.01201363326242319</v>
+        <v>0.01094610407818554</v>
       </c>
       <c r="BN21">
         <v>2</v>
@@ -4729,7 +4753,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.000917821440610862</v>
+        <v>0.0009162017515410719</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -4750,10 +4774,10 @@
         <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K22">
-        <v>0.001342089928892822</v>
+        <v>0.001341511408648667</v>
       </c>
       <c r="L22">
         <v>2</v>
@@ -4777,7 +4801,7 @@
         <v>27</v>
       </c>
       <c r="T22">
-        <v>0.001071620277798569</v>
+        <v>0.019162779303131</v>
       </c>
       <c r="U22">
         <v>1</v>
@@ -4798,10 +4822,10 @@
         <v>0</v>
       </c>
       <c r="AB22" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AC22">
-        <v>0.001575439107633397</v>
+        <v>0.01101995877123026</v>
       </c>
       <c r="AD22">
         <v>2</v>
@@ -4825,7 +4849,7 @@
         <v>27</v>
       </c>
       <c r="AL22">
-        <v>0.001296403193688295</v>
+        <v>0.02088691896032935</v>
       </c>
       <c r="AM22">
         <v>1</v>
@@ -4846,10 +4870,10 @@
         <v>0</v>
       </c>
       <c r="AT22" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AU22">
-        <v>0.01195602302821982</v>
+        <v>0.01096826624910955</v>
       </c>
       <c r="AV22">
         <v>2</v>
@@ -4873,7 +4897,7 @@
         <v>27</v>
       </c>
       <c r="BD22">
-        <v>0.001656055859111857</v>
+        <v>0.02166668888743815</v>
       </c>
       <c r="BE22">
         <v>1</v>
@@ -4894,10 +4918,10 @@
         <v>0</v>
       </c>
       <c r="BL22" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="BM22">
-        <v>0.01201363326242319</v>
+        <v>0.01094610407818554</v>
       </c>
       <c r="BN22">
         <v>2</v>
@@ -4923,7 +4947,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.000917821440610862</v>
+        <v>0.0009162017515410719</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -4944,10 +4968,10 @@
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K23">
-        <v>0.001342089928892822</v>
+        <v>0.001341511408648667</v>
       </c>
       <c r="L23">
         <v>2</v>
@@ -4971,7 +4995,7 @@
         <v>28</v>
       </c>
       <c r="T23">
-        <v>0.001071620277798569</v>
+        <v>0.019162779303131</v>
       </c>
       <c r="U23">
         <v>1</v>
@@ -4992,10 +5016,10 @@
         <v>0</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AC23">
-        <v>0.001575439107633397</v>
+        <v>0.01101995877123026</v>
       </c>
       <c r="AD23">
         <v>2</v>
@@ -5019,7 +5043,7 @@
         <v>28</v>
       </c>
       <c r="AL23">
-        <v>0.001296403193688295</v>
+        <v>0.02088691896032935</v>
       </c>
       <c r="AM23">
         <v>1</v>
@@ -5040,10 +5064,10 @@
         <v>0</v>
       </c>
       <c r="AT23" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AU23">
-        <v>0.01195602302821982</v>
+        <v>0.01096826624910955</v>
       </c>
       <c r="AV23">
         <v>2</v>
@@ -5067,7 +5091,7 @@
         <v>28</v>
       </c>
       <c r="BD23">
-        <v>0.001656055859111857</v>
+        <v>0.02166668888743815</v>
       </c>
       <c r="BE23">
         <v>1</v>
@@ -5088,10 +5112,10 @@
         <v>0</v>
       </c>
       <c r="BL23" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="BM23">
-        <v>0.01201363326242319</v>
+        <v>0.01094610407818554</v>
       </c>
       <c r="BN23">
         <v>2</v>
@@ -5117,7 +5141,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.000917821440610862</v>
+        <v>0.0009162017515410719</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -5138,10 +5162,10 @@
         <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K24">
-        <v>0.001342089928892822</v>
+        <v>0.001341511408648667</v>
       </c>
       <c r="L24">
         <v>2</v>
@@ -5165,7 +5189,7 @@
         <v>29</v>
       </c>
       <c r="T24">
-        <v>0.001071620277798569</v>
+        <v>0.019162779303131</v>
       </c>
       <c r="U24">
         <v>1</v>
@@ -5186,10 +5210,10 @@
         <v>0</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC24">
-        <v>0.001575439107633397</v>
+        <v>0.01101995877123026</v>
       </c>
       <c r="AD24">
         <v>2</v>
@@ -5213,7 +5237,7 @@
         <v>29</v>
       </c>
       <c r="AL24">
-        <v>0.001296403193688295</v>
+        <v>0.02088691896032935</v>
       </c>
       <c r="AM24">
         <v>1</v>
@@ -5234,10 +5258,10 @@
         <v>0</v>
       </c>
       <c r="AT24" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AU24">
-        <v>0.01195602302821982</v>
+        <v>0.01096826624910955</v>
       </c>
       <c r="AV24">
         <v>2</v>
@@ -5261,7 +5285,7 @@
         <v>29</v>
       </c>
       <c r="BD24">
-        <v>0.001656055859111857</v>
+        <v>0.02166668888743815</v>
       </c>
       <c r="BE24">
         <v>1</v>
@@ -5282,10 +5306,10 @@
         <v>0</v>
       </c>
       <c r="BL24" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BM24">
-        <v>0.01201363326242319</v>
+        <v>0.01094610407818554</v>
       </c>
       <c r="BN24">
         <v>2</v>
@@ -5311,7 +5335,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.000917821440610862</v>
+        <v>0.0009162017515410719</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -5332,10 +5356,10 @@
         <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K25">
-        <v>0.001342089928892822</v>
+        <v>0.001341511408648667</v>
       </c>
       <c r="L25">
         <v>2</v>
@@ -5359,7 +5383,7 @@
         <v>30</v>
       </c>
       <c r="T25">
-        <v>0.001071620277798569</v>
+        <v>0.019162779303131</v>
       </c>
       <c r="U25">
         <v>1</v>
@@ -5380,10 +5404,10 @@
         <v>0</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AC25">
-        <v>0.001575439107633397</v>
+        <v>0.01095833897196103</v>
       </c>
       <c r="AD25">
         <v>2</v>
@@ -5401,13 +5425,13 @@
         <v>0</v>
       </c>
       <c r="AI25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="AL25">
-        <v>0.001296403193688295</v>
+        <v>0.02088691896032935</v>
       </c>
       <c r="AM25">
         <v>1</v>
@@ -5428,10 +5452,10 @@
         <v>0</v>
       </c>
       <c r="AT25" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AU25">
-        <v>0.01195602302821982</v>
+        <v>0.01090354863082514</v>
       </c>
       <c r="AV25">
         <v>2</v>
@@ -5449,13 +5473,13 @@
         <v>0</v>
       </c>
       <c r="BA25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="BD25">
-        <v>0.001656055859111857</v>
+        <v>0.02166668888743815</v>
       </c>
       <c r="BE25">
         <v>1</v>
@@ -5476,10 +5500,10 @@
         <v>0</v>
       </c>
       <c r="BL25" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="BM25">
-        <v>0.01201363326242319</v>
+        <v>0.01088005832980244</v>
       </c>
       <c r="BN25">
         <v>2</v>
@@ -5497,7 +5521,7 @@
         <v>0</v>
       </c>
       <c r="BS25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:71">
@@ -5505,7 +5529,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.000917821440610862</v>
+        <v>0.0009162017515410719</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -5526,10 +5550,10 @@
         <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K26">
-        <v>0.001342089928892822</v>
+        <v>0.00133637260968876</v>
       </c>
       <c r="L26">
         <v>2</v>
@@ -5547,13 +5571,13 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="T26">
-        <v>0.001071620277798569</v>
+        <v>0.019162779303131</v>
       </c>
       <c r="U26">
         <v>1</v>
@@ -5574,10 +5598,10 @@
         <v>0</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AC26">
-        <v>0.001575439107633397</v>
+        <v>0.01089671917269179</v>
       </c>
       <c r="AD26">
         <v>2</v>
@@ -5595,13 +5619,13 @@
         <v>0</v>
       </c>
       <c r="AI26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="AL26">
-        <v>0.001296403193688295</v>
+        <v>0.02088691896032935</v>
       </c>
       <c r="AM26">
         <v>1</v>
@@ -5622,10 +5646,10 @@
         <v>0</v>
       </c>
       <c r="AT26" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AU26">
-        <v>0.01195602302821982</v>
+        <v>0.01083883101254074</v>
       </c>
       <c r="AV26">
         <v>2</v>
@@ -5643,13 +5667,13 @@
         <v>0</v>
       </c>
       <c r="BA26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="BD26">
-        <v>0.001656055859111857</v>
+        <v>0.02166668888743815</v>
       </c>
       <c r="BE26">
         <v>1</v>
@@ -5670,10 +5694,10 @@
         <v>0</v>
       </c>
       <c r="BL26" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="BM26">
-        <v>0.01201363326242319</v>
+        <v>0.01081401258141934</v>
       </c>
       <c r="BN26">
         <v>2</v>
@@ -5691,7 +5715,7 @@
         <v>0</v>
       </c>
       <c r="BS26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:71">
@@ -5699,7 +5723,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.000917821440610862</v>
+        <v>0.0009162017515410719</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -5720,10 +5744,10 @@
         <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K27">
-        <v>0.001342089928892822</v>
+        <v>0.001331233810728853</v>
       </c>
       <c r="L27">
         <v>2</v>
@@ -5741,13 +5765,13 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="T27">
-        <v>0.001071620277798569</v>
+        <v>0.019162779303131</v>
       </c>
       <c r="U27">
         <v>1</v>
@@ -5768,10 +5792,10 @@
         <v>0</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC27">
-        <v>0.001575439107633397</v>
+        <v>0.01083509937342256</v>
       </c>
       <c r="AD27">
         <v>2</v>
@@ -5789,13 +5813,13 @@
         <v>0</v>
       </c>
       <c r="AI27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="AL27">
-        <v>0.001296403193688295</v>
+        <v>0.02088691896032935</v>
       </c>
       <c r="AM27">
         <v>1</v>
@@ -5816,10 +5840,10 @@
         <v>0</v>
       </c>
       <c r="AT27" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AU27">
-        <v>0.01195602302821982</v>
+        <v>0.01077411339425633</v>
       </c>
       <c r="AV27">
         <v>2</v>
@@ -5837,13 +5861,13 @@
         <v>0</v>
       </c>
       <c r="BA27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BC27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="BD27">
-        <v>0.001656055859111857</v>
+        <v>0.02166668888743815</v>
       </c>
       <c r="BE27">
         <v>1</v>
@@ -5864,10 +5888,10 @@
         <v>0</v>
       </c>
       <c r="BL27" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="BM27">
-        <v>0.01201363326242319</v>
+        <v>0.01074796683303623</v>
       </c>
       <c r="BN27">
         <v>2</v>
@@ -5885,7 +5909,7 @@
         <v>0</v>
       </c>
       <c r="BS27">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:71">
@@ -5893,7 +5917,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.000917821440610862</v>
+        <v>0.0009162017515410719</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -5914,10 +5938,10 @@
         <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K28">
-        <v>0.001336955140702835</v>
+        <v>0.001326095011768946</v>
       </c>
       <c r="L28">
         <v>2</v>
@@ -5935,13 +5959,13 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="T28">
-        <v>0.001071620277798569</v>
+        <v>0.019162779303131</v>
       </c>
       <c r="U28">
         <v>1</v>
@@ -5962,10 +5986,10 @@
         <v>0</v>
       </c>
       <c r="AB28" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AC28">
-        <v>0.001551048863730958</v>
+        <v>0.01077347957415332</v>
       </c>
       <c r="AD28">
         <v>2</v>
@@ -5983,13 +6007,13 @@
         <v>0</v>
       </c>
       <c r="AI28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AK28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="AL28">
-        <v>0.001296403193688295</v>
+        <v>0.02088691896032935</v>
       </c>
       <c r="AM28">
         <v>1</v>
@@ -6010,10 +6034,10 @@
         <v>0</v>
       </c>
       <c r="AT28" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AU28">
-        <v>0.01168731155150156</v>
+        <v>0.01070939577597192</v>
       </c>
       <c r="AV28">
         <v>2</v>
@@ -6031,13 +6055,13 @@
         <v>0</v>
       </c>
       <c r="BA28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BC28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="BD28">
-        <v>0.001656055859111857</v>
+        <v>0.02166668888743815</v>
       </c>
       <c r="BE28">
         <v>1</v>
@@ -6058,10 +6082,10 @@
         <v>0</v>
       </c>
       <c r="BL28" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="BM28">
-        <v>0.01171878930833432</v>
+        <v>0.01068192108465313</v>
       </c>
       <c r="BN28">
         <v>2</v>
@@ -6079,7 +6103,7 @@
         <v>0</v>
       </c>
       <c r="BS28">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:71">
@@ -6087,7 +6111,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.000917821440610862</v>
+        <v>0.0009162017515410719</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -6108,10 +6132,10 @@
         <v>0</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K29">
-        <v>0.001336955140702835</v>
+        <v>0.001320956212809038</v>
       </c>
       <c r="L29">
         <v>2</v>
@@ -6129,13 +6153,13 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="T29">
-        <v>0.001071620277798569</v>
+        <v>0.019162779303131</v>
       </c>
       <c r="U29">
         <v>1</v>
@@ -6156,16 +6180,16 @@
         <v>0</v>
       </c>
       <c r="AB29" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="AC29">
-        <v>0.001551048863730958</v>
+        <v>0.01014729628349838</v>
       </c>
       <c r="AD29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF29">
         <v>1</v>
@@ -6177,13 +6201,13 @@
         <v>0</v>
       </c>
       <c r="AI29">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="AK29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AL29">
-        <v>0.001296403193688295</v>
+        <v>0.02088691896032935</v>
       </c>
       <c r="AM29">
         <v>1</v>
@@ -6204,16 +6228,16 @@
         <v>0</v>
       </c>
       <c r="AT29" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AU29">
-        <v>0.01168731155150156</v>
+        <v>0.01016066607065215</v>
       </c>
       <c r="AV29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX29">
         <v>1</v>
@@ -6225,13 +6249,13 @@
         <v>0</v>
       </c>
       <c r="BA29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="BD29">
-        <v>0.001656055859111857</v>
+        <v>0.02166668888743815</v>
       </c>
       <c r="BE29">
         <v>1</v>
@@ -6252,16 +6276,16 @@
         <v>0</v>
       </c>
       <c r="BL29" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="BM29">
-        <v>0.01171878930833432</v>
+        <v>0.01036918249614737</v>
       </c>
       <c r="BN29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP29">
         <v>1</v>
@@ -6273,7 +6297,7 @@
         <v>0</v>
       </c>
       <c r="BS29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:71">
@@ -6281,7 +6305,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.000917821440610862</v>
+        <v>0.0009162017515410719</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -6302,16 +6326,16 @@
         <v>0</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K30">
-        <v>0.001331820352512848</v>
+        <v>0.0008926280061124753</v>
       </c>
       <c r="L30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -6323,13 +6347,13 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="T30">
-        <v>0.001071620277798569</v>
+        <v>0.019162779303131</v>
       </c>
       <c r="U30">
         <v>1</v>
@@ -6350,16 +6374,16 @@
         <v>0</v>
       </c>
       <c r="AB30" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC30">
-        <v>0.001526658619828519</v>
+        <v>0.00967430848526972</v>
       </c>
       <c r="AD30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF30">
         <v>1</v>
@@ -6371,13 +6395,13 @@
         <v>0</v>
       </c>
       <c r="AI30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="AL30">
-        <v>0.001296403193688295</v>
+        <v>0.02088691896032935</v>
       </c>
       <c r="AM30">
         <v>1</v>
@@ -6398,16 +6422,16 @@
         <v>0</v>
       </c>
       <c r="AT30" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AU30">
-        <v>0.01141860007478329</v>
+        <v>0.01016066607065215</v>
       </c>
       <c r="AV30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX30">
         <v>1</v>
@@ -6419,13 +6443,13 @@
         <v>0</v>
       </c>
       <c r="BA30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="BD30">
-        <v>0.001656055859111857</v>
+        <v>0.02166668888743815</v>
       </c>
       <c r="BE30">
         <v>1</v>
@@ -6446,16 +6470,16 @@
         <v>0</v>
       </c>
       <c r="BL30" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="BM30">
-        <v>0.01142394535424545</v>
+        <v>0.01036918249614737</v>
       </c>
       <c r="BN30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP30">
         <v>1</v>
@@ -6467,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="BS30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:71">
@@ -6475,7 +6499,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.000917821440610862</v>
+        <v>0.0009162017515410719</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -6496,16 +6520,16 @@
         <v>0</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K31">
-        <v>0.001321550776132874</v>
+        <v>0.0008926280061124753</v>
       </c>
       <c r="L31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -6517,13 +6541,13 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="T31">
-        <v>0.001071620277798569</v>
+        <v>0.019162779303131</v>
       </c>
       <c r="U31">
         <v>1</v>
@@ -6544,16 +6568,16 @@
         <v>0</v>
       </c>
       <c r="AB31" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC31">
-        <v>0.001477878132023641</v>
+        <v>0.00967430848526972</v>
       </c>
       <c r="AD31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF31">
         <v>1</v>
@@ -6565,13 +6589,13 @@
         <v>0</v>
       </c>
       <c r="AI31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="AL31">
-        <v>0.001296403193688295</v>
+        <v>0.02088691896032935</v>
       </c>
       <c r="AM31">
         <v>1</v>
@@ -6592,16 +6616,16 @@
         <v>0</v>
       </c>
       <c r="AT31" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AU31">
-        <v>0.01088117712134676</v>
+        <v>0.01016066607065215</v>
       </c>
       <c r="AV31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX31">
         <v>1</v>
@@ -6613,13 +6637,13 @@
         <v>0</v>
       </c>
       <c r="BA31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BC31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="BD31">
-        <v>0.001656055859111857</v>
+        <v>0.02166668888743815</v>
       </c>
       <c r="BE31">
         <v>1</v>
@@ -6640,16 +6664,16 @@
         <v>0</v>
       </c>
       <c r="BL31" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BM31">
-        <v>0.0108342574460677</v>
+        <v>0.01036918249614737</v>
       </c>
       <c r="BN31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP31">
         <v>1</v>
@@ -6661,7 +6685,7 @@
         <v>0</v>
       </c>
       <c r="BS31">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:71">
@@ -6669,7 +6693,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.000917821440610862</v>
+        <v>0.0009162017515410719</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -6690,10 +6714,10 @@
         <v>0</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K32">
-        <v>0.0008930150231985525</v>
+        <v>0.0008926280061124753</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -6717,7 +6741,7 @@
         <v>37</v>
       </c>
       <c r="T32">
-        <v>0.001071620277798569</v>
+        <v>0.019162779303131</v>
       </c>
       <c r="U32">
         <v>1</v>
@@ -6738,10 +6762,10 @@
         <v>0</v>
       </c>
       <c r="AB32" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC32">
-        <v>0.001042162657121452</v>
+        <v>0.00967430848526972</v>
       </c>
       <c r="AD32">
         <v>1</v>
@@ -6765,7 +6789,7 @@
         <v>37</v>
       </c>
       <c r="AL32">
-        <v>0.001296403193688295</v>
+        <v>0.02088691896032935</v>
       </c>
       <c r="AM32">
         <v>1</v>
@@ -6786,10 +6810,10 @@
         <v>0</v>
       </c>
       <c r="AT32" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AU32">
-        <v>0.008598767254984534</v>
+        <v>0.01016066607065215</v>
       </c>
       <c r="AV32">
         <v>1</v>
@@ -6813,7 +6837,7 @@
         <v>37</v>
       </c>
       <c r="BD32">
-        <v>0.001656055859111857</v>
+        <v>0.02166668888743815</v>
       </c>
       <c r="BE32">
         <v>1</v>
@@ -6834,10 +6858,10 @@
         <v>0</v>
       </c>
       <c r="BL32" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="BM32">
-        <v>0.009435006530843894</v>
+        <v>0.01036918249614737</v>
       </c>
       <c r="BN32">
         <v>1</v>
@@ -6863,7 +6887,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.0009126866524208748</v>
+        <v>0.0009162017515410719</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -6881,13 +6905,13 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K33">
-        <v>0.0008930150231985525</v>
+        <v>0.0008926280061124753</v>
       </c>
       <c r="L33">
         <v>1</v>
@@ -6911,7 +6935,7 @@
         <v>38</v>
       </c>
       <c r="T33">
-        <v>0.00104723003389613</v>
+        <v>0.019162779303131</v>
       </c>
       <c r="U33">
         <v>1</v>
@@ -6929,13 +6953,13 @@
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB33" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AC33">
-        <v>0.001042162657121452</v>
+        <v>0.00967430848526972</v>
       </c>
       <c r="AD33">
         <v>1</v>
@@ -6959,7 +6983,7 @@
         <v>38</v>
       </c>
       <c r="AL33">
-        <v>0.001243870360667657</v>
+        <v>0.02088691896032935</v>
       </c>
       <c r="AM33">
         <v>1</v>
@@ -6977,13 +7001,13 @@
         <v>0</v>
       </c>
       <c r="AR33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT33" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AU33">
-        <v>0.008598767254984534</v>
+        <v>0.01016066607065215</v>
       </c>
       <c r="AV33">
         <v>1</v>
@@ -7007,7 +7031,7 @@
         <v>38</v>
       </c>
       <c r="BD33">
-        <v>0.001558494883502101</v>
+        <v>0.02166668888743815</v>
       </c>
       <c r="BE33">
         <v>1</v>
@@ -7025,13 +7049,13 @@
         <v>0</v>
       </c>
       <c r="BJ33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL33" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="BM33">
-        <v>0.009435006530843894</v>
+        <v>0.01036918249614737</v>
       </c>
       <c r="BN33">
         <v>1</v>
@@ -7057,7 +7081,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.0009126866524208748</v>
+        <v>0.0009110629525811649</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -7078,10 +7102,10 @@
         <v>1</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K34">
-        <v>0.0008930150231985525</v>
+        <v>0.0008926280061124753</v>
       </c>
       <c r="L34">
         <v>1</v>
@@ -7105,7 +7129,7 @@
         <v>39</v>
       </c>
       <c r="T34">
-        <v>0.00104723003389613</v>
+        <v>0.01904664124674839</v>
       </c>
       <c r="U34">
         <v>1</v>
@@ -7126,10 +7150,10 @@
         <v>1</v>
       </c>
       <c r="AB34" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC34">
-        <v>0.001042162657121452</v>
+        <v>0.00967430848526972</v>
       </c>
       <c r="AD34">
         <v>1</v>
@@ -7153,7 +7177,7 @@
         <v>39</v>
       </c>
       <c r="AL34">
-        <v>0.001243870360667657</v>
+        <v>0.02076033157269099</v>
       </c>
       <c r="AM34">
         <v>1</v>
@@ -7174,10 +7198,10 @@
         <v>1</v>
       </c>
       <c r="AT34" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AU34">
-        <v>0.008598767254984534</v>
+        <v>0.01016066607065215</v>
       </c>
       <c r="AV34">
         <v>1</v>
@@ -7201,7 +7225,7 @@
         <v>39</v>
       </c>
       <c r="BD34">
-        <v>0.001558494883502101</v>
+        <v>0.02153537562145367</v>
       </c>
       <c r="BE34">
         <v>1</v>
@@ -7222,10 +7246,10 @@
         <v>1</v>
       </c>
       <c r="BL34" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="BM34">
-        <v>0.009435006530843894</v>
+        <v>0.01036918249614737</v>
       </c>
       <c r="BN34">
         <v>1</v>
@@ -7251,7 +7275,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.0009126866524208748</v>
+        <v>0.0009110629525811649</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -7272,10 +7296,10 @@
         <v>1</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K35">
-        <v>0.0008930150231985525</v>
+        <v>0.0008926280061124753</v>
       </c>
       <c r="L35">
         <v>1</v>
@@ -7299,7 +7323,7 @@
         <v>40</v>
       </c>
       <c r="T35">
-        <v>0.00104723003389613</v>
+        <v>0.01904664124674839</v>
       </c>
       <c r="U35">
         <v>1</v>
@@ -7320,10 +7344,10 @@
         <v>1</v>
       </c>
       <c r="AB35" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AC35">
-        <v>0.001042162657121452</v>
+        <v>0.00967430848526972</v>
       </c>
       <c r="AD35">
         <v>1</v>
@@ -7347,7 +7371,7 @@
         <v>40</v>
       </c>
       <c r="AL35">
-        <v>0.001243870360667657</v>
+        <v>0.02076033157269099</v>
       </c>
       <c r="AM35">
         <v>1</v>
@@ -7368,10 +7392,10 @@
         <v>1</v>
       </c>
       <c r="AT35" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AU35">
-        <v>0.008598767254984534</v>
+        <v>0.01016066607065215</v>
       </c>
       <c r="AV35">
         <v>1</v>
@@ -7395,7 +7419,7 @@
         <v>40</v>
       </c>
       <c r="BD35">
-        <v>0.001558494883502101</v>
+        <v>0.02153537562145367</v>
       </c>
       <c r="BE35">
         <v>1</v>
@@ -7416,10 +7440,10 @@
         <v>1</v>
       </c>
       <c r="BL35" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="BM35">
-        <v>0.009435006530843894</v>
+        <v>0.01036918249614737</v>
       </c>
       <c r="BN35">
         <v>1</v>
@@ -7445,7 +7469,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.0009126866524208748</v>
+        <v>0.0009110629525811649</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -7466,10 +7490,10 @@
         <v>1</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K36">
-        <v>0.0008930150231985525</v>
+        <v>0.0008926280061124753</v>
       </c>
       <c r="L36">
         <v>1</v>
@@ -7493,7 +7517,7 @@
         <v>41</v>
       </c>
       <c r="T36">
-        <v>0.00104723003389613</v>
+        <v>0.01904664124674839</v>
       </c>
       <c r="U36">
         <v>1</v>
@@ -7514,10 +7538,10 @@
         <v>1</v>
       </c>
       <c r="AB36" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AC36">
-        <v>0.001042162657121452</v>
+        <v>0.00967430848526972</v>
       </c>
       <c r="AD36">
         <v>1</v>
@@ -7541,7 +7565,7 @@
         <v>41</v>
       </c>
       <c r="AL36">
-        <v>0.001243870360667657</v>
+        <v>0.02076033157269099</v>
       </c>
       <c r="AM36">
         <v>1</v>
@@ -7562,10 +7586,10 @@
         <v>1</v>
       </c>
       <c r="AT36" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AU36">
-        <v>0.008598767254984534</v>
+        <v>0.01016066607065215</v>
       </c>
       <c r="AV36">
         <v>1</v>
@@ -7589,7 +7613,7 @@
         <v>41</v>
       </c>
       <c r="BD36">
-        <v>0.001558494883502101</v>
+        <v>0.02153537562145367</v>
       </c>
       <c r="BE36">
         <v>1</v>
@@ -7610,10 +7634,10 @@
         <v>1</v>
       </c>
       <c r="BL36" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="BM36">
-        <v>0.009435006530843894</v>
+        <v>0.01036918249614737</v>
       </c>
       <c r="BN36">
         <v>1</v>
@@ -7639,7 +7663,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.0009126866524208748</v>
+        <v>0.0009110629525811649</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -7660,10 +7684,10 @@
         <v>1</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K37">
-        <v>0.0008930150231985525</v>
+        <v>0.0008926280061124753</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -7687,7 +7711,7 @@
         <v>42</v>
       </c>
       <c r="T37">
-        <v>0.00104723003389613</v>
+        <v>0.01904664124674839</v>
       </c>
       <c r="U37">
         <v>1</v>
@@ -7708,10 +7732,10 @@
         <v>1</v>
       </c>
       <c r="AB37" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AC37">
-        <v>0.001042162657121452</v>
+        <v>0.00967430848526972</v>
       </c>
       <c r="AD37">
         <v>1</v>
@@ -7735,7 +7759,7 @@
         <v>42</v>
       </c>
       <c r="AL37">
-        <v>0.001243870360667657</v>
+        <v>0.02076033157269099</v>
       </c>
       <c r="AM37">
         <v>1</v>
@@ -7756,10 +7780,10 @@
         <v>1</v>
       </c>
       <c r="AT37" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AU37">
-        <v>0.008598767254984534</v>
+        <v>0.01016066607065215</v>
       </c>
       <c r="AV37">
         <v>1</v>
@@ -7783,7 +7807,7 @@
         <v>42</v>
       </c>
       <c r="BD37">
-        <v>0.001558494883502101</v>
+        <v>0.02153537562145367</v>
       </c>
       <c r="BE37">
         <v>1</v>
@@ -7804,10 +7828,10 @@
         <v>1</v>
       </c>
       <c r="BL37" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="BM37">
-        <v>0.009435006530843894</v>
+        <v>0.01036918249614737</v>
       </c>
       <c r="BN37">
         <v>1</v>
@@ -7833,7 +7857,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.0009126866524208748</v>
+        <v>0.0009110629525811649</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -7854,10 +7878,10 @@
         <v>1</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K38">
-        <v>0.0008930150231985525</v>
+        <v>0.0008926280061124753</v>
       </c>
       <c r="L38">
         <v>1</v>
@@ -7881,7 +7905,7 @@
         <v>43</v>
       </c>
       <c r="T38">
-        <v>0.00104723003389613</v>
+        <v>0.01904664124674839</v>
       </c>
       <c r="U38">
         <v>1</v>
@@ -7902,10 +7926,10 @@
         <v>1</v>
       </c>
       <c r="AB38" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AC38">
-        <v>0.001042162657121452</v>
+        <v>0.00967430848526972</v>
       </c>
       <c r="AD38">
         <v>1</v>
@@ -7929,7 +7953,7 @@
         <v>43</v>
       </c>
       <c r="AL38">
-        <v>0.001243870360667657</v>
+        <v>0.02076033157269099</v>
       </c>
       <c r="AM38">
         <v>1</v>
@@ -7950,10 +7974,10 @@
         <v>1</v>
       </c>
       <c r="AT38" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AU38">
-        <v>0.008598767254984534</v>
+        <v>0.01016066607065215</v>
       </c>
       <c r="AV38">
         <v>1</v>
@@ -7977,7 +8001,7 @@
         <v>43</v>
       </c>
       <c r="BD38">
-        <v>0.001558494883502101</v>
+        <v>0.02153537562145367</v>
       </c>
       <c r="BE38">
         <v>1</v>
@@ -7998,10 +8022,10 @@
         <v>1</v>
       </c>
       <c r="BL38" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="BM38">
-        <v>0.009435006530843894</v>
+        <v>0.01036918249614737</v>
       </c>
       <c r="BN38">
         <v>1</v>
@@ -8027,7 +8051,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.0009075518642308877</v>
+        <v>0.0009110629525811649</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -8045,13 +8069,13 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K39">
-        <v>0.0008930150231985525</v>
+        <v>0.0008926280061124753</v>
       </c>
       <c r="L39">
         <v>1</v>
@@ -8075,7 +8099,7 @@
         <v>44</v>
       </c>
       <c r="T39">
-        <v>0.001022839789993691</v>
+        <v>0.01904664124674839</v>
       </c>
       <c r="U39">
         <v>1</v>
@@ -8093,13 +8117,13 @@
         <v>0</v>
       </c>
       <c r="Z39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB39" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC39">
-        <v>0.001042162657121452</v>
+        <v>0.00967430848526972</v>
       </c>
       <c r="AD39">
         <v>1</v>
@@ -8123,7 +8147,7 @@
         <v>44</v>
       </c>
       <c r="AL39">
-        <v>0.00119133752764702</v>
+        <v>0.02076033157269099</v>
       </c>
       <c r="AM39">
         <v>1</v>
@@ -8141,13 +8165,13 @@
         <v>0</v>
       </c>
       <c r="AR39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT39" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AU39">
-        <v>0.008598767254984534</v>
+        <v>0.01016066607065215</v>
       </c>
       <c r="AV39">
         <v>1</v>
@@ -8171,7 +8195,7 @@
         <v>44</v>
       </c>
       <c r="BD39">
-        <v>0.001460933907892345</v>
+        <v>0.02153537562145367</v>
       </c>
       <c r="BE39">
         <v>1</v>
@@ -8189,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="BJ39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BL39" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="BM39">
-        <v>0.009435006530843894</v>
+        <v>0.01036918249614737</v>
       </c>
       <c r="BN39">
         <v>1</v>
@@ -8221,7 +8245,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.0009075518642308877</v>
+        <v>0.0009007853546613506</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -8239,13 +8263,13 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K40">
-        <v>0.0008930150231985525</v>
+        <v>0.0008926280061124753</v>
       </c>
       <c r="L40">
         <v>1</v>
@@ -8269,7 +8293,7 @@
         <v>45</v>
       </c>
       <c r="T40">
-        <v>0.001022839789993691</v>
+        <v>0.01881436513398317</v>
       </c>
       <c r="U40">
         <v>1</v>
@@ -8287,13 +8311,13 @@
         <v>0</v>
       </c>
       <c r="Z40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB40" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AC40">
-        <v>0.001042162657121452</v>
+        <v>0.00967430848526972</v>
       </c>
       <c r="AD40">
         <v>1</v>
@@ -8317,7 +8341,7 @@
         <v>45</v>
       </c>
       <c r="AL40">
-        <v>0.00119133752764702</v>
+        <v>0.02050715679741427</v>
       </c>
       <c r="AM40">
         <v>1</v>
@@ -8335,13 +8359,13 @@
         <v>0</v>
       </c>
       <c r="AR40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT40" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AU40">
-        <v>0.008598767254984534</v>
+        <v>0.01016066607065215</v>
       </c>
       <c r="AV40">
         <v>1</v>
@@ -8365,7 +8389,7 @@
         <v>45</v>
       </c>
       <c r="BD40">
-        <v>0.001460933907892345</v>
+        <v>0.02127274908948473</v>
       </c>
       <c r="BE40">
         <v>1</v>
@@ -8383,13 +8407,13 @@
         <v>0</v>
       </c>
       <c r="BJ40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BL40" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="BM40">
-        <v>0.009435006530843894</v>
+        <v>0.01036918249614737</v>
       </c>
       <c r="BN40">
         <v>1</v>
@@ -8415,7 +8439,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.0009075518642308877</v>
+        <v>0.0009007853546613506</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -8433,13 +8457,13 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K41">
-        <v>0.0008930150231985525</v>
+        <v>0.0008926280061124753</v>
       </c>
       <c r="L41">
         <v>1</v>
@@ -8463,7 +8487,7 @@
         <v>46</v>
       </c>
       <c r="T41">
-        <v>0.001022839789993691</v>
+        <v>0.01881436513398317</v>
       </c>
       <c r="U41">
         <v>1</v>
@@ -8481,13 +8505,13 @@
         <v>0</v>
       </c>
       <c r="Z41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB41" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AC41">
-        <v>0.001042162657121452</v>
+        <v>0.00967430848526972</v>
       </c>
       <c r="AD41">
         <v>1</v>
@@ -8511,7 +8535,7 @@
         <v>46</v>
       </c>
       <c r="AL41">
-        <v>0.00119133752764702</v>
+        <v>0.02050715679741427</v>
       </c>
       <c r="AM41">
         <v>1</v>
@@ -8529,13 +8553,13 @@
         <v>0</v>
       </c>
       <c r="AR41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT41" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AU41">
-        <v>0.008598767254984534</v>
+        <v>0.01016066607065215</v>
       </c>
       <c r="AV41">
         <v>1</v>
@@ -8559,7 +8583,7 @@
         <v>46</v>
       </c>
       <c r="BD41">
-        <v>0.001460933907892345</v>
+        <v>0.02127274908948473</v>
       </c>
       <c r="BE41">
         <v>1</v>
@@ -8577,13 +8601,13 @@
         <v>0</v>
       </c>
       <c r="BJ41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BL41" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="BM41">
-        <v>0.009435006530843894</v>
+        <v>0.01036918249614737</v>
       </c>
       <c r="BN41">
         <v>1</v>
@@ -8609,7 +8633,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.0009024170760409005</v>
+        <v>0.0009007853546613506</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -8630,10 +8654,10 @@
         <v>3</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K42">
-        <v>0.0008930150231985525</v>
+        <v>0.0008926280061124753</v>
       </c>
       <c r="L42">
         <v>1</v>
@@ -8657,7 +8681,7 @@
         <v>47</v>
       </c>
       <c r="T42">
-        <v>0.0009984495460912523</v>
+        <v>0.01881436513398317</v>
       </c>
       <c r="U42">
         <v>1</v>
@@ -8678,10 +8702,10 @@
         <v>3</v>
       </c>
       <c r="AB42" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AC42">
-        <v>0.001042162657121452</v>
+        <v>0.00967430848526972</v>
       </c>
       <c r="AD42">
         <v>1</v>
@@ -8705,7 +8729,7 @@
         <v>47</v>
       </c>
       <c r="AL42">
-        <v>0.001138804694626382</v>
+        <v>0.02050715679741427</v>
       </c>
       <c r="AM42">
         <v>1</v>
@@ -8726,10 +8750,10 @@
         <v>3</v>
       </c>
       <c r="AT42" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AU42">
-        <v>0.008598767254984534</v>
+        <v>0.01016066607065215</v>
       </c>
       <c r="AV42">
         <v>1</v>
@@ -8753,7 +8777,7 @@
         <v>47</v>
       </c>
       <c r="BD42">
-        <v>0.001363372932282589</v>
+        <v>0.02127274908948473</v>
       </c>
       <c r="BE42">
         <v>1</v>
@@ -8774,10 +8798,10 @@
         <v>3</v>
       </c>
       <c r="BL42" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="BM42">
-        <v>0.009435006530843894</v>
+        <v>0.01036918249614737</v>
       </c>
       <c r="BN42">
         <v>1</v>
@@ -8803,7 +8827,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.0008921474996609262</v>
+        <v>0.0009007853546613506</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -8821,13 +8845,13 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K43">
-        <v>0.0008930150231985525</v>
+        <v>0.0008926280061124753</v>
       </c>
       <c r="L43">
         <v>1</v>
@@ -8851,7 +8875,7 @@
         <v>48</v>
       </c>
       <c r="T43">
-        <v>0.0009496690582863742</v>
+        <v>0.01881436513398317</v>
       </c>
       <c r="U43">
         <v>1</v>
@@ -8869,13 +8893,13 @@
         <v>0</v>
       </c>
       <c r="Z43">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB43" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AC43">
-        <v>0.001042162657121452</v>
+        <v>0.00967430848526972</v>
       </c>
       <c r="AD43">
         <v>1</v>
@@ -8899,7 +8923,7 @@
         <v>48</v>
       </c>
       <c r="AL43">
-        <v>0.001033739028585106</v>
+        <v>0.02050715679741427</v>
       </c>
       <c r="AM43">
         <v>1</v>
@@ -8917,13 +8941,13 @@
         <v>0</v>
       </c>
       <c r="AR43">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AT43" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AU43">
-        <v>0.008598767254984534</v>
+        <v>0.01016066607065215</v>
       </c>
       <c r="AV43">
         <v>1</v>
@@ -8947,7 +8971,7 @@
         <v>48</v>
       </c>
       <c r="BD43">
-        <v>0.001168250981063077</v>
+        <v>0.02127274908948473</v>
       </c>
       <c r="BE43">
         <v>1</v>
@@ -8965,13 +8989,13 @@
         <v>0</v>
       </c>
       <c r="BJ43">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BL43" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="BM43">
-        <v>0.009435006530843894</v>
+        <v>0.01036918249614737</v>
       </c>
       <c r="BN43">
         <v>1</v>
@@ -8997,7 +9021,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.0008818779232809519</v>
+        <v>0.0008802301588217222</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -9018,10 +9042,10 @@
         <v>7</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K44">
-        <v>0.0008930150231985525</v>
+        <v>0.0008926280061124753</v>
       </c>
       <c r="L44">
         <v>1</v>
@@ -9045,7 +9069,7 @@
         <v>49</v>
       </c>
       <c r="T44">
-        <v>0.0009008885704814962</v>
+        <v>0.01834981290845272</v>
       </c>
       <c r="U44">
         <v>1</v>
@@ -9066,10 +9090,10 @@
         <v>7</v>
       </c>
       <c r="AB44" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AC44">
-        <v>0.001042162657121452</v>
+        <v>0.00967430848526972</v>
       </c>
       <c r="AD44">
         <v>1</v>
@@ -9093,7 +9117,7 @@
         <v>49</v>
       </c>
       <c r="AL44">
-        <v>0.0009286733625438302</v>
+        <v>0.02000080724686083</v>
       </c>
       <c r="AM44">
         <v>1</v>
@@ -9114,10 +9138,10 @@
         <v>7</v>
       </c>
       <c r="AT44" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AU44">
-        <v>0.008598767254984534</v>
+        <v>0.01016066607065215</v>
       </c>
       <c r="AV44">
         <v>1</v>
@@ -9141,7 +9165,7 @@
         <v>49</v>
       </c>
       <c r="BD44">
-        <v>0.0009731290298435646</v>
+        <v>0.02074749602554683</v>
       </c>
       <c r="BE44">
         <v>1</v>
@@ -9162,10 +9186,10 @@
         <v>7</v>
       </c>
       <c r="BL44" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="BM44">
-        <v>0.009435006530843894</v>
+        <v>0.01036918249614737</v>
       </c>
       <c r="BN44">
         <v>1</v>
@@ -9191,7 +9215,7 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.0008510691941410289</v>
+        <v>0.0007928705765033016</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -9209,13 +9233,13 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K45">
-        <v>0.0008930150231985525</v>
+        <v>0.0008926280061124753</v>
       </c>
       <c r="L45">
         <v>1</v>
@@ -9239,7 +9263,7 @@
         <v>50</v>
       </c>
       <c r="T45">
-        <v>0.000754547107066862</v>
+        <v>0.01637546594994831</v>
       </c>
       <c r="U45">
         <v>1</v>
@@ -9257,13 +9281,13 @@
         <v>0</v>
       </c>
       <c r="Z45">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="AB45" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC45">
-        <v>0.001042162657121452</v>
+        <v>0.00967430848526972</v>
       </c>
       <c r="AD45">
         <v>1</v>
@@ -9287,7 +9311,7 @@
         <v>50</v>
       </c>
       <c r="AL45">
-        <v>0.0006134763644200028</v>
+        <v>0.01784882165700872</v>
       </c>
       <c r="AM45">
         <v>1</v>
@@ -9305,13 +9329,13 @@
         <v>0</v>
       </c>
       <c r="AR45">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="AT45" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AU45">
-        <v>0.008598767254984534</v>
+        <v>0.01016066607065215</v>
       </c>
       <c r="AV45">
         <v>1</v>
@@ -9335,7 +9359,7 @@
         <v>50</v>
       </c>
       <c r="BD45">
-        <v>0.0003877631761850281</v>
+        <v>0.01851517050381078</v>
       </c>
       <c r="BE45">
         <v>1</v>
@@ -9353,13 +9377,13 @@
         <v>0</v>
       </c>
       <c r="BJ45">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="BL45" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="BM45">
-        <v>0.009435006530843894</v>
+        <v>0.01036918249614737</v>
       </c>
       <c r="BN45">
         <v>1</v>
@@ -9381,11 +9405,35 @@
       </c>
     </row>
     <row r="46" spans="1:71">
+      <c r="A46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>6.829992315640123E-05</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>165</v>
+      </c>
       <c r="J46" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K46">
-        <v>0.0008930150231985525</v>
+        <v>0.0008926280061124753</v>
       </c>
       <c r="L46">
         <v>1</v>
@@ -9405,11 +9453,35 @@
       <c r="Q46">
         <v>0</v>
       </c>
+      <c r="S46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>1</v>
+      </c>
+      <c r="V46">
+        <v>1</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>1</v>
+      </c>
+      <c r="Y46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>165</v>
+      </c>
       <c r="AB46" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC46">
-        <v>0.001042162657121452</v>
+        <v>0.00967430848526972</v>
       </c>
       <c r="AD46">
         <v>1</v>
@@ -9429,11 +9501,35 @@
       <c r="AI46">
         <v>0</v>
       </c>
+      <c r="AK46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL46">
+        <v>0</v>
+      </c>
+      <c r="AM46">
+        <v>1</v>
+      </c>
+      <c r="AN46">
+        <v>1</v>
+      </c>
+      <c r="AO46">
+        <v>0</v>
+      </c>
+      <c r="AP46">
+        <v>1</v>
+      </c>
+      <c r="AQ46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR46">
+        <v>165</v>
+      </c>
       <c r="AT46" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AU46">
-        <v>0.008598767254984534</v>
+        <v>0.01016066607065215</v>
       </c>
       <c r="AV46">
         <v>1</v>
@@ -9453,11 +9549,35 @@
       <c r="BA46">
         <v>0</v>
       </c>
+      <c r="BC46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BD46">
+        <v>0</v>
+      </c>
+      <c r="BE46">
+        <v>1</v>
+      </c>
+      <c r="BF46">
+        <v>1</v>
+      </c>
+      <c r="BG46">
+        <v>0</v>
+      </c>
+      <c r="BH46">
+        <v>1</v>
+      </c>
+      <c r="BI46" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ46">
+        <v>165</v>
+      </c>
       <c r="BL46" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="BM46">
-        <v>0.009435006530843894</v>
+        <v>0.01036918249614737</v>
       </c>
       <c r="BN46">
         <v>1</v>
@@ -9480,10 +9600,10 @@
     </row>
     <row r="47" spans="1:71">
       <c r="J47" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K47">
-        <v>0.0008930150231985525</v>
+        <v>0.0008926280061124753</v>
       </c>
       <c r="L47">
         <v>1</v>
@@ -9504,10 +9624,10 @@
         <v>0</v>
       </c>
       <c r="AB47" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AC47">
-        <v>0.001042162657121452</v>
+        <v>0.00967430848526972</v>
       </c>
       <c r="AD47">
         <v>1</v>
@@ -9528,10 +9648,10 @@
         <v>0</v>
       </c>
       <c r="AT47" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AU47">
-        <v>0.008598767254984534</v>
+        <v>0.01016066607065215</v>
       </c>
       <c r="AV47">
         <v>1</v>
@@ -9552,10 +9672,10 @@
         <v>0</v>
       </c>
       <c r="BL47" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="BM47">
-        <v>0.009435006530843894</v>
+        <v>0.01036918249614737</v>
       </c>
       <c r="BN47">
         <v>1</v>
@@ -9578,10 +9698,10 @@
     </row>
     <row r="48" spans="1:71">
       <c r="J48" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K48">
-        <v>0.0008930150231985525</v>
+        <v>0.0008926280061124753</v>
       </c>
       <c r="L48">
         <v>1</v>
@@ -9602,10 +9722,10 @@
         <v>0</v>
       </c>
       <c r="AB48" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AC48">
-        <v>0.001042162657121452</v>
+        <v>0.00967430848526972</v>
       </c>
       <c r="AD48">
         <v>1</v>
@@ -9626,10 +9746,10 @@
         <v>0</v>
       </c>
       <c r="AT48" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AU48">
-        <v>0.008598767254984534</v>
+        <v>0.01016066607065215</v>
       </c>
       <c r="AV48">
         <v>1</v>
@@ -9650,10 +9770,10 @@
         <v>0</v>
       </c>
       <c r="BL48" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="BM48">
-        <v>0.009435006530843894</v>
+        <v>0.01036918249614737</v>
       </c>
       <c r="BN48">
         <v>1</v>
@@ -9676,10 +9796,10 @@
     </row>
     <row r="49" spans="10:71">
       <c r="J49" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K49">
-        <v>0.0008930150231985525</v>
+        <v>0.0008926280061124753</v>
       </c>
       <c r="L49">
         <v>1</v>
@@ -9700,10 +9820,10 @@
         <v>0</v>
       </c>
       <c r="AB49" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC49">
-        <v>0.001042162657121452</v>
+        <v>0.00967430848526972</v>
       </c>
       <c r="AD49">
         <v>1</v>
@@ -9724,10 +9844,10 @@
         <v>0</v>
       </c>
       <c r="AT49" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AU49">
-        <v>0.008598767254984534</v>
+        <v>0.01016066607065215</v>
       </c>
       <c r="AV49">
         <v>1</v>
@@ -9748,10 +9868,10 @@
         <v>0</v>
       </c>
       <c r="BL49" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="BM49">
-        <v>0.009435006530843894</v>
+        <v>0.01036918249614737</v>
       </c>
       <c r="BN49">
         <v>1</v>
@@ -9774,10 +9894,10 @@
     </row>
     <row r="50" spans="10:71">
       <c r="J50" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K50">
-        <v>0.0008930150231985525</v>
+        <v>0.0008926280061124753</v>
       </c>
       <c r="L50">
         <v>1</v>
@@ -9798,10 +9918,10 @@
         <v>0</v>
       </c>
       <c r="AB50" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AC50">
-        <v>0.001042162657121452</v>
+        <v>0.00967430848526972</v>
       </c>
       <c r="AD50">
         <v>1</v>
@@ -9822,10 +9942,10 @@
         <v>0</v>
       </c>
       <c r="AT50" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AU50">
-        <v>0.008598767254984534</v>
+        <v>0.01016066607065215</v>
       </c>
       <c r="AV50">
         <v>1</v>
@@ -9846,10 +9966,10 @@
         <v>0</v>
       </c>
       <c r="BL50" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="BM50">
-        <v>0.009435006530843894</v>
+        <v>0.01036918249614737</v>
       </c>
       <c r="BN50">
         <v>1</v>
@@ -9872,10 +9992,10 @@
     </row>
     <row r="51" spans="10:71">
       <c r="J51" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K51">
-        <v>0.0008930150231985525</v>
+        <v>0.0008926280061124753</v>
       </c>
       <c r="L51">
         <v>1</v>
@@ -9896,10 +10016,10 @@
         <v>0</v>
       </c>
       <c r="AB51" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AC51">
-        <v>0.001042162657121452</v>
+        <v>0.00967430848526972</v>
       </c>
       <c r="AD51">
         <v>1</v>
@@ -9920,10 +10040,10 @@
         <v>0</v>
       </c>
       <c r="AT51" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AU51">
-        <v>0.008598767254984534</v>
+        <v>0.01016066607065215</v>
       </c>
       <c r="AV51">
         <v>1</v>
@@ -9944,10 +10064,10 @@
         <v>0</v>
       </c>
       <c r="BL51" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="BM51">
-        <v>0.009435006530843894</v>
+        <v>0.01036918249614737</v>
       </c>
       <c r="BN51">
         <v>1</v>
@@ -9970,10 +10090,10 @@
     </row>
     <row r="52" spans="10:71">
       <c r="J52" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K52">
-        <v>0.0008930150231985525</v>
+        <v>0.0008926280061124753</v>
       </c>
       <c r="L52">
         <v>1</v>
@@ -9994,10 +10114,10 @@
         <v>0</v>
       </c>
       <c r="AB52" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AC52">
-        <v>0.001042162657121452</v>
+        <v>0.00967430848526972</v>
       </c>
       <c r="AD52">
         <v>1</v>
@@ -10018,10 +10138,10 @@
         <v>0</v>
       </c>
       <c r="AT52" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AU52">
-        <v>0.008598767254984534</v>
+        <v>0.01016066607065215</v>
       </c>
       <c r="AV52">
         <v>1</v>
@@ -10042,10 +10162,10 @@
         <v>0</v>
       </c>
       <c r="BL52" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="BM52">
-        <v>0.009435006530843894</v>
+        <v>0.01036918249614737</v>
       </c>
       <c r="BN52">
         <v>1</v>
@@ -10068,10 +10188,10 @@
     </row>
     <row r="53" spans="10:71">
       <c r="J53" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K53">
-        <v>0.0008930150231985525</v>
+        <v>0.0008926280061124753</v>
       </c>
       <c r="L53">
         <v>1</v>
@@ -10092,10 +10212,10 @@
         <v>0</v>
       </c>
       <c r="AB53" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AC53">
-        <v>0.001042162657121452</v>
+        <v>0.00967430848526972</v>
       </c>
       <c r="AD53">
         <v>1</v>
@@ -10116,10 +10236,10 @@
         <v>0</v>
       </c>
       <c r="AT53" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AU53">
-        <v>0.008598767254984534</v>
+        <v>0.01016066607065215</v>
       </c>
       <c r="AV53">
         <v>1</v>
@@ -10140,10 +10260,10 @@
         <v>0</v>
       </c>
       <c r="BL53" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="BM53">
-        <v>0.009435006530843894</v>
+        <v>0.01036918249614737</v>
       </c>
       <c r="BN53">
         <v>1</v>
@@ -10166,10 +10286,10 @@
     </row>
     <row r="54" spans="10:71">
       <c r="J54" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K54">
-        <v>0.0008930150231985525</v>
+        <v>0.0008926280061124753</v>
       </c>
       <c r="L54">
         <v>1</v>
@@ -10190,10 +10310,10 @@
         <v>0</v>
       </c>
       <c r="AB54" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AC54">
-        <v>0.001042162657121452</v>
+        <v>0.00967430848526972</v>
       </c>
       <c r="AD54">
         <v>1</v>
@@ -10214,10 +10334,10 @@
         <v>0</v>
       </c>
       <c r="AT54" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AU54">
-        <v>0.008598767254984534</v>
+        <v>0.01016066607065215</v>
       </c>
       <c r="AV54">
         <v>1</v>
@@ -10238,10 +10358,10 @@
         <v>0</v>
       </c>
       <c r="BL54" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="BM54">
-        <v>0.009435006530843894</v>
+        <v>0.01036918249614737</v>
       </c>
       <c r="BN54">
         <v>1</v>
@@ -10264,10 +10384,10 @@
     </row>
     <row r="55" spans="10:71">
       <c r="J55" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K55">
-        <v>0.0008930150231985525</v>
+        <v>0.0008926280061124753</v>
       </c>
       <c r="L55">
         <v>1</v>
@@ -10288,10 +10408,10 @@
         <v>0</v>
       </c>
       <c r="AB55" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AC55">
-        <v>0.001042162657121452</v>
+        <v>0.00967430848526972</v>
       </c>
       <c r="AD55">
         <v>1</v>
@@ -10312,10 +10432,10 @@
         <v>0</v>
       </c>
       <c r="AT55" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AU55">
-        <v>0.008598767254984534</v>
+        <v>0.01016066607065215</v>
       </c>
       <c r="AV55">
         <v>1</v>
@@ -10336,10 +10456,10 @@
         <v>0</v>
       </c>
       <c r="BL55" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="BM55">
-        <v>0.009435006530843894</v>
+        <v>0.01036918249614737</v>
       </c>
       <c r="BN55">
         <v>1</v>
@@ -10362,10 +10482,10 @@
     </row>
     <row r="56" spans="10:71">
       <c r="J56" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K56">
-        <v>0.0008930150231985525</v>
+        <v>0.0008926280061124753</v>
       </c>
       <c r="L56">
         <v>1</v>
@@ -10386,10 +10506,10 @@
         <v>0</v>
       </c>
       <c r="AB56" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AC56">
-        <v>0.001042162657121452</v>
+        <v>0.00967430848526972</v>
       </c>
       <c r="AD56">
         <v>1</v>
@@ -10410,10 +10530,10 @@
         <v>0</v>
       </c>
       <c r="AT56" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AU56">
-        <v>0.008598767254984534</v>
+        <v>0.01016066607065215</v>
       </c>
       <c r="AV56">
         <v>1</v>
@@ -10434,10 +10554,10 @@
         <v>0</v>
       </c>
       <c r="BL56" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="BM56">
-        <v>0.009435006530843894</v>
+        <v>0.01036918249614737</v>
       </c>
       <c r="BN56">
         <v>1</v>
@@ -10460,10 +10580,10 @@
     </row>
     <row r="57" spans="10:71">
       <c r="J57" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K57">
-        <v>0.0008930150231985525</v>
+        <v>0.0008926280061124753</v>
       </c>
       <c r="L57">
         <v>1</v>
@@ -10484,10 +10604,10 @@
         <v>0</v>
       </c>
       <c r="AB57" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AC57">
-        <v>0.001042162657121452</v>
+        <v>0.00967430848526972</v>
       </c>
       <c r="AD57">
         <v>1</v>
@@ -10508,10 +10628,10 @@
         <v>0</v>
       </c>
       <c r="AT57" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AU57">
-        <v>0.008598767254984534</v>
+        <v>0.01016066607065215</v>
       </c>
       <c r="AV57">
         <v>1</v>
@@ -10532,10 +10652,10 @@
         <v>0</v>
       </c>
       <c r="BL57" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="BM57">
-        <v>0.009435006530843894</v>
+        <v>0.01036918249614737</v>
       </c>
       <c r="BN57">
         <v>1</v>
@@ -10558,10 +10678,10 @@
     </row>
     <row r="58" spans="10:71">
       <c r="J58" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K58">
-        <v>0.0008930150231985525</v>
+        <v>0.0008926280061124753</v>
       </c>
       <c r="L58">
         <v>1</v>
@@ -10582,10 +10702,10 @@
         <v>0</v>
       </c>
       <c r="AB58" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AC58">
-        <v>0.001042162657121452</v>
+        <v>0.00967430848526972</v>
       </c>
       <c r="AD58">
         <v>1</v>
@@ -10606,10 +10726,10 @@
         <v>0</v>
       </c>
       <c r="AT58" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AU58">
-        <v>0.008598767254984534</v>
+        <v>0.01016066607065215</v>
       </c>
       <c r="AV58">
         <v>1</v>
@@ -10630,10 +10750,10 @@
         <v>0</v>
       </c>
       <c r="BL58" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="BM58">
-        <v>0.009435006530843894</v>
+        <v>0.01036918249614737</v>
       </c>
       <c r="BN58">
         <v>1</v>
@@ -10656,10 +10776,10 @@
     </row>
     <row r="59" spans="10:71">
       <c r="J59" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K59">
-        <v>0.0008930150231985525</v>
+        <v>0.0008926280061124753</v>
       </c>
       <c r="L59">
         <v>1</v>
@@ -10680,10 +10800,10 @@
         <v>0</v>
       </c>
       <c r="AB59" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AC59">
-        <v>0.001042162657121452</v>
+        <v>0.00967430848526972</v>
       </c>
       <c r="AD59">
         <v>1</v>
@@ -10704,10 +10824,10 @@
         <v>0</v>
       </c>
       <c r="AT59" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AU59">
-        <v>0.008598767254984534</v>
+        <v>0.01016066607065215</v>
       </c>
       <c r="AV59">
         <v>1</v>
@@ -10728,10 +10848,10 @@
         <v>0</v>
       </c>
       <c r="BL59" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="BM59">
-        <v>0.009435006530843894</v>
+        <v>0.01036918249614737</v>
       </c>
       <c r="BN59">
         <v>1</v>
@@ -10754,10 +10874,10 @@
     </row>
     <row r="60" spans="10:71">
       <c r="J60" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K60">
-        <v>0.0008930150231985525</v>
+        <v>0.0008926280061124753</v>
       </c>
       <c r="L60">
         <v>1</v>
@@ -10778,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="AB60" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AC60">
-        <v>0.001042162657121452</v>
+        <v>0.00967430848526972</v>
       </c>
       <c r="AD60">
         <v>1</v>
@@ -10802,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="AT60" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AU60">
-        <v>0.008598767254984534</v>
+        <v>0.01009594845236774</v>
       </c>
       <c r="AV60">
         <v>1</v>
@@ -10823,13 +10943,13 @@
         <v>0</v>
       </c>
       <c r="BA60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL60" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="BM60">
-        <v>0.009435006530843894</v>
+        <v>0.01030313674776427</v>
       </c>
       <c r="BN60">
         <v>1</v>
@@ -10847,15 +10967,15 @@
         <v>0</v>
       </c>
       <c r="BS60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="10:71">
       <c r="J61" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K61">
-        <v>0.0008930150231985525</v>
+        <v>0.0008874892071525683</v>
       </c>
       <c r="L61">
         <v>1</v>
@@ -10873,13 +10993,13 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB61" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AC61">
-        <v>0.001042162657121452</v>
+        <v>0.009612688686000485</v>
       </c>
       <c r="AD61">
         <v>1</v>
@@ -10897,13 +11017,13 @@
         <v>0</v>
       </c>
       <c r="AI61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT61" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AU61">
-        <v>0.008598767254984534</v>
+        <v>0.01009594845236774</v>
       </c>
       <c r="AV61">
         <v>1</v>
@@ -10921,13 +11041,13 @@
         <v>0</v>
       </c>
       <c r="BA61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL61" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BM61">
-        <v>0.009435006530843894</v>
+        <v>0.01030313674776427</v>
       </c>
       <c r="BN61">
         <v>1</v>
@@ -10945,15 +11065,15 @@
         <v>0</v>
       </c>
       <c r="BS61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="10:71">
       <c r="J62" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K62">
-        <v>0.0008930150231985525</v>
+        <v>0.0008874892071525683</v>
       </c>
       <c r="L62">
         <v>1</v>
@@ -10971,13 +11091,13 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB62" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AC62">
-        <v>0.001042162657121452</v>
+        <v>0.009612688686000485</v>
       </c>
       <c r="AD62">
         <v>1</v>
@@ -10995,13 +11115,13 @@
         <v>0</v>
       </c>
       <c r="AI62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT62" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AU62">
-        <v>0.008598767254984534</v>
+        <v>0.01009594845236774</v>
       </c>
       <c r="AV62">
         <v>1</v>
@@ -11019,13 +11139,13 @@
         <v>0</v>
       </c>
       <c r="BA62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL62" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="BM62">
-        <v>0.009435006530843894</v>
+        <v>0.01030313674776427</v>
       </c>
       <c r="BN62">
         <v>1</v>
@@ -11043,15 +11163,15 @@
         <v>0</v>
       </c>
       <c r="BS62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="10:71">
       <c r="J63" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K63">
-        <v>0.0008878802350085653</v>
+        <v>0.0008874892071525683</v>
       </c>
       <c r="L63">
         <v>1</v>
@@ -11072,10 +11192,10 @@
         <v>1</v>
       </c>
       <c r="AB63" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AC63">
-        <v>0.001017772413219013</v>
+        <v>0.009612688686000485</v>
       </c>
       <c r="AD63">
         <v>1</v>
@@ -11096,10 +11216,10 @@
         <v>1</v>
       </c>
       <c r="AT63" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AU63">
-        <v>0.008330055778266265</v>
+        <v>0.01009594845236774</v>
       </c>
       <c r="AV63">
         <v>1</v>
@@ -11120,10 +11240,10 @@
         <v>1</v>
       </c>
       <c r="BL63" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="BM63">
-        <v>0.009140162576755022</v>
+        <v>0.01030313674776427</v>
       </c>
       <c r="BN63">
         <v>1</v>
@@ -11146,10 +11266,10 @@
     </row>
     <row r="64" spans="10:71">
       <c r="J64" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K64">
-        <v>0.0008878802350085653</v>
+        <v>0.0008874892071525683</v>
       </c>
       <c r="L64">
         <v>1</v>
@@ -11170,10 +11290,10 @@
         <v>1</v>
       </c>
       <c r="AB64" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AC64">
-        <v>0.001017772413219013</v>
+        <v>0.009612688686000485</v>
       </c>
       <c r="AD64">
         <v>1</v>
@@ -11194,10 +11314,10 @@
         <v>1</v>
       </c>
       <c r="AT64" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AU64">
-        <v>0.008330055778266265</v>
+        <v>0.01009594845236774</v>
       </c>
       <c r="AV64">
         <v>1</v>
@@ -11218,10 +11338,10 @@
         <v>1</v>
       </c>
       <c r="BL64" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="BM64">
-        <v>0.009140162576755022</v>
+        <v>0.01030313674776427</v>
       </c>
       <c r="BN64">
         <v>1</v>
@@ -11244,10 +11364,10 @@
     </row>
     <row r="65" spans="10:71">
       <c r="J65" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K65">
-        <v>0.0008878802350085653</v>
+        <v>0.0008874892071525683</v>
       </c>
       <c r="L65">
         <v>1</v>
@@ -11268,10 +11388,10 @@
         <v>1</v>
       </c>
       <c r="AB65" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AC65">
-        <v>0.001017772413219013</v>
+        <v>0.009612688686000485</v>
       </c>
       <c r="AD65">
         <v>1</v>
@@ -11292,10 +11412,10 @@
         <v>1</v>
       </c>
       <c r="AT65" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AU65">
-        <v>0.008330055778266265</v>
+        <v>0.01009594845236774</v>
       </c>
       <c r="AV65">
         <v>1</v>
@@ -11316,10 +11436,10 @@
         <v>1</v>
       </c>
       <c r="BL65" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="BM65">
-        <v>0.009140162576755022</v>
+        <v>0.01030313674776427</v>
       </c>
       <c r="BN65">
         <v>1</v>
@@ -11342,10 +11462,10 @@
     </row>
     <row r="66" spans="10:71">
       <c r="J66" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K66">
-        <v>0.0008878802350085653</v>
+        <v>0.0008874892071525683</v>
       </c>
       <c r="L66">
         <v>1</v>
@@ -11366,10 +11486,10 @@
         <v>1</v>
       </c>
       <c r="AB66" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AC66">
-        <v>0.001017772413219013</v>
+        <v>0.009612688686000485</v>
       </c>
       <c r="AD66">
         <v>1</v>
@@ -11390,10 +11510,10 @@
         <v>1</v>
       </c>
       <c r="AT66" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AU66">
-        <v>0.008330055778266265</v>
+        <v>0.01009594845236774</v>
       </c>
       <c r="AV66">
         <v>1</v>
@@ -11414,10 +11534,10 @@
         <v>1</v>
       </c>
       <c r="BL66" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="BM66">
-        <v>0.009140162576755022</v>
+        <v>0.01030313674776427</v>
       </c>
       <c r="BN66">
         <v>1</v>
@@ -11440,10 +11560,10 @@
     </row>
     <row r="67" spans="10:71">
       <c r="J67" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K67">
-        <v>0.0008878802350085653</v>
+        <v>0.0008874892071525683</v>
       </c>
       <c r="L67">
         <v>1</v>
@@ -11464,10 +11584,10 @@
         <v>1</v>
       </c>
       <c r="AB67" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC67">
-        <v>0.001017772413219013</v>
+        <v>0.009612688686000485</v>
       </c>
       <c r="AD67">
         <v>1</v>
@@ -11488,10 +11608,10 @@
         <v>1</v>
       </c>
       <c r="AT67" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AU67">
-        <v>0.008330055778266265</v>
+        <v>0.01009594845236774</v>
       </c>
       <c r="AV67">
         <v>1</v>
@@ -11512,10 +11632,10 @@
         <v>1</v>
       </c>
       <c r="BL67" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="BM67">
-        <v>0.009140162576755022</v>
+        <v>0.01030313674776427</v>
       </c>
       <c r="BN67">
         <v>1</v>
@@ -11538,10 +11658,10 @@
     </row>
     <row r="68" spans="10:71">
       <c r="J68" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K68">
-        <v>0.0008878802350085653</v>
+        <v>0.0008874892071525683</v>
       </c>
       <c r="L68">
         <v>1</v>
@@ -11562,10 +11682,10 @@
         <v>1</v>
       </c>
       <c r="AB68" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC68">
-        <v>0.001017772413219013</v>
+        <v>0.009612688686000485</v>
       </c>
       <c r="AD68">
         <v>1</v>
@@ -11586,10 +11706,10 @@
         <v>1</v>
       </c>
       <c r="AT68" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AU68">
-        <v>0.008330055778266265</v>
+        <v>0.01009594845236774</v>
       </c>
       <c r="AV68">
         <v>1</v>
@@ -11610,10 +11730,10 @@
         <v>1</v>
       </c>
       <c r="BL68" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="BM68">
-        <v>0.009140162576755022</v>
+        <v>0.01030313674776427</v>
       </c>
       <c r="BN68">
         <v>1</v>
@@ -11636,10 +11756,10 @@
     </row>
     <row r="69" spans="10:71">
       <c r="J69" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K69">
-        <v>0.0008878802350085653</v>
+        <v>0.0008874892071525683</v>
       </c>
       <c r="L69">
         <v>1</v>
@@ -11660,10 +11780,10 @@
         <v>1</v>
       </c>
       <c r="AB69" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AC69">
-        <v>0.001017772413219013</v>
+        <v>0.009612688686000485</v>
       </c>
       <c r="AD69">
         <v>1</v>
@@ -11684,10 +11804,10 @@
         <v>1</v>
       </c>
       <c r="AT69" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AU69">
-        <v>0.008330055778266265</v>
+        <v>0.01009594845236774</v>
       </c>
       <c r="AV69">
         <v>1</v>
@@ -11708,10 +11828,10 @@
         <v>1</v>
       </c>
       <c r="BL69" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="BM69">
-        <v>0.009140162576755022</v>
+        <v>0.01030313674776427</v>
       </c>
       <c r="BN69">
         <v>1</v>
@@ -11734,10 +11854,10 @@
     </row>
     <row r="70" spans="10:71">
       <c r="J70" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K70">
-        <v>0.0008878802350085653</v>
+        <v>0.0008874892071525683</v>
       </c>
       <c r="L70">
         <v>1</v>
@@ -11758,10 +11878,10 @@
         <v>1</v>
       </c>
       <c r="AB70" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AC70">
-        <v>0.001017772413219013</v>
+        <v>0.009612688686000485</v>
       </c>
       <c r="AD70">
         <v>1</v>
@@ -11782,10 +11902,10 @@
         <v>1</v>
       </c>
       <c r="AT70" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AU70">
-        <v>0.008330055778266265</v>
+        <v>0.01009594845236774</v>
       </c>
       <c r="AV70">
         <v>1</v>
@@ -11806,10 +11926,10 @@
         <v>1</v>
       </c>
       <c r="BL70" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="BM70">
-        <v>0.009140162576755022</v>
+        <v>0.01030313674776427</v>
       </c>
       <c r="BN70">
         <v>1</v>
@@ -11832,10 +11952,10 @@
     </row>
     <row r="71" spans="10:71">
       <c r="J71" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K71">
-        <v>0.0008878802350085653</v>
+        <v>0.0008874892071525683</v>
       </c>
       <c r="L71">
         <v>1</v>
@@ -11856,10 +11976,10 @@
         <v>1</v>
       </c>
       <c r="AB71" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AC71">
-        <v>0.001017772413219013</v>
+        <v>0.009612688686000485</v>
       </c>
       <c r="AD71">
         <v>1</v>
@@ -11880,10 +12000,10 @@
         <v>1</v>
       </c>
       <c r="AT71" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AU71">
-        <v>0.008330055778266265</v>
+        <v>0.01009594845236774</v>
       </c>
       <c r="AV71">
         <v>1</v>
@@ -11904,10 +12024,10 @@
         <v>1</v>
       </c>
       <c r="BL71" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="BM71">
-        <v>0.009140162576755022</v>
+        <v>0.01030313674776427</v>
       </c>
       <c r="BN71">
         <v>1</v>
@@ -11930,10 +12050,10 @@
     </row>
     <row r="72" spans="10:71">
       <c r="J72" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K72">
-        <v>0.0008878802350085653</v>
+        <v>0.0008874892071525683</v>
       </c>
       <c r="L72">
         <v>1</v>
@@ -11954,10 +12074,10 @@
         <v>1</v>
       </c>
       <c r="AB72" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AC72">
-        <v>0.001017772413219013</v>
+        <v>0.009612688686000485</v>
       </c>
       <c r="AD72">
         <v>1</v>
@@ -11978,10 +12098,10 @@
         <v>1</v>
       </c>
       <c r="AT72" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AU72">
-        <v>0.008330055778266265</v>
+        <v>0.01009594845236774</v>
       </c>
       <c r="AV72">
         <v>1</v>
@@ -12002,10 +12122,10 @@
         <v>1</v>
       </c>
       <c r="BL72" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="BM72">
-        <v>0.009140162576755022</v>
+        <v>0.01030313674776427</v>
       </c>
       <c r="BN72">
         <v>1</v>
@@ -12028,10 +12148,10 @@
     </row>
     <row r="73" spans="10:71">
       <c r="J73" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K73">
-        <v>0.0008878802350085653</v>
+        <v>0.0008874892071525683</v>
       </c>
       <c r="L73">
         <v>1</v>
@@ -12052,10 +12172,10 @@
         <v>1</v>
       </c>
       <c r="AB73" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AC73">
-        <v>0.001017772413219013</v>
+        <v>0.009612688686000485</v>
       </c>
       <c r="AD73">
         <v>1</v>
@@ -12076,10 +12196,10 @@
         <v>1</v>
       </c>
       <c r="AT73" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AU73">
-        <v>0.008330055778266265</v>
+        <v>0.01009594845236774</v>
       </c>
       <c r="AV73">
         <v>1</v>
@@ -12100,10 +12220,10 @@
         <v>1</v>
       </c>
       <c r="BL73" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="BM73">
-        <v>0.009140162576755022</v>
+        <v>0.01030313674776427</v>
       </c>
       <c r="BN73">
         <v>1</v>
@@ -12126,10 +12246,10 @@
     </row>
     <row r="74" spans="10:71">
       <c r="J74" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K74">
-        <v>0.0008827454468185782</v>
+        <v>0.0008874892071525683</v>
       </c>
       <c r="L74">
         <v>1</v>
@@ -12147,13 +12267,13 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB74" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AC74">
-        <v>0.0009933821693165737</v>
+        <v>0.009612688686000485</v>
       </c>
       <c r="AD74">
         <v>1</v>
@@ -12171,13 +12291,13 @@
         <v>0</v>
       </c>
       <c r="AI74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT74" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AU74">
-        <v>0.008061344301547998</v>
+        <v>0.01009594845236774</v>
       </c>
       <c r="AV74">
         <v>1</v>
@@ -12195,13 +12315,13 @@
         <v>0</v>
       </c>
       <c r="BA74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BL74" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="BM74">
-        <v>0.008845318622666151</v>
+        <v>0.01030313674776427</v>
       </c>
       <c r="BN74">
         <v>1</v>
@@ -12219,15 +12339,15 @@
         <v>0</v>
       </c>
       <c r="BS74">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="10:71">
       <c r="J75" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K75">
-        <v>0.0008827454468185782</v>
+        <v>0.0008874892071525683</v>
       </c>
       <c r="L75">
         <v>1</v>
@@ -12245,13 +12365,13 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB75" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AC75">
-        <v>0.0009933821693165737</v>
+        <v>0.009612688686000485</v>
       </c>
       <c r="AD75">
         <v>1</v>
@@ -12269,13 +12389,13 @@
         <v>0</v>
       </c>
       <c r="AI75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT75" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AU75">
-        <v>0.008061344301547998</v>
+        <v>0.01003123083408333</v>
       </c>
       <c r="AV75">
         <v>1</v>
@@ -12296,10 +12416,10 @@
         <v>2</v>
       </c>
       <c r="BL75" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="BM75">
-        <v>0.008845318622666151</v>
+        <v>0.01023709099938117</v>
       </c>
       <c r="BN75">
         <v>1</v>
@@ -12322,10 +12442,10 @@
     </row>
     <row r="76" spans="10:71">
       <c r="J76" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K76">
-        <v>0.0008827454468185782</v>
+        <v>0.0008823504081926612</v>
       </c>
       <c r="L76">
         <v>1</v>
@@ -12346,10 +12466,10 @@
         <v>2</v>
       </c>
       <c r="AB76" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AC76">
-        <v>0.0009933821693165737</v>
+        <v>0.009551068886731252</v>
       </c>
       <c r="AD76">
         <v>1</v>
@@ -12370,10 +12490,10 @@
         <v>2</v>
       </c>
       <c r="AT76" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AU76">
-        <v>0.008061344301547998</v>
+        <v>0.01003123083408333</v>
       </c>
       <c r="AV76">
         <v>1</v>
@@ -12394,10 +12514,10 @@
         <v>2</v>
       </c>
       <c r="BL76" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="BM76">
-        <v>0.008845318622666151</v>
+        <v>0.01023709099938117</v>
       </c>
       <c r="BN76">
         <v>1</v>
@@ -12420,10 +12540,10 @@
     </row>
     <row r="77" spans="10:71">
       <c r="J77" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K77">
-        <v>0.0008827454468185782</v>
+        <v>0.0008823504081926612</v>
       </c>
       <c r="L77">
         <v>1</v>
@@ -12444,10 +12564,10 @@
         <v>2</v>
       </c>
       <c r="AB77" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AC77">
-        <v>0.0009933821693165737</v>
+        <v>0.009551068886731252</v>
       </c>
       <c r="AD77">
         <v>1</v>
@@ -12468,10 +12588,10 @@
         <v>2</v>
       </c>
       <c r="AT77" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AU77">
-        <v>0.008061344301547998</v>
+        <v>0.01003123083408333</v>
       </c>
       <c r="AV77">
         <v>1</v>
@@ -12492,10 +12612,10 @@
         <v>2</v>
       </c>
       <c r="BL77" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="BM77">
-        <v>0.008845318622666151</v>
+        <v>0.01023709099938117</v>
       </c>
       <c r="BN77">
         <v>1</v>
@@ -12518,10 +12638,10 @@
     </row>
     <row r="78" spans="10:71">
       <c r="J78" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K78">
-        <v>0.000877610658628591</v>
+        <v>0.0008823504081926612</v>
       </c>
       <c r="L78">
         <v>1</v>
@@ -12539,13 +12659,13 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB78" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AC78">
-        <v>0.0009689919254141346</v>
+        <v>0.009551068886731252</v>
       </c>
       <c r="AD78">
         <v>1</v>
@@ -12563,13 +12683,13 @@
         <v>0</v>
       </c>
       <c r="AI78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT78" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AU78">
-        <v>0.007792632824829732</v>
+        <v>0.009966513215798925</v>
       </c>
       <c r="AV78">
         <v>1</v>
@@ -12590,10 +12710,10 @@
         <v>3</v>
       </c>
       <c r="BL78" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="BM78">
-        <v>0.008550474668577279</v>
+        <v>0.01017104525099806</v>
       </c>
       <c r="BN78">
         <v>1</v>
@@ -12616,10 +12736,10 @@
     </row>
     <row r="79" spans="10:71">
       <c r="J79" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K79">
-        <v>0.000877610658628591</v>
+        <v>0.000877211609232754</v>
       </c>
       <c r="L79">
         <v>1</v>
@@ -12640,10 +12760,10 @@
         <v>3</v>
       </c>
       <c r="AB79" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AC79">
-        <v>0.0009689919254141346</v>
+        <v>0.009489449087462017</v>
       </c>
       <c r="AD79">
         <v>1</v>
@@ -12664,10 +12784,10 @@
         <v>3</v>
       </c>
       <c r="AT79" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AU79">
-        <v>0.007792632824829732</v>
+        <v>0.009966513215798925</v>
       </c>
       <c r="AV79">
         <v>1</v>
@@ -12688,10 +12808,10 @@
         <v>3</v>
       </c>
       <c r="BL79" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="BM79">
-        <v>0.008550474668577279</v>
+        <v>0.01017104525099806</v>
       </c>
       <c r="BN79">
         <v>1</v>
@@ -12714,10 +12834,10 @@
     </row>
     <row r="80" spans="10:71">
       <c r="J80" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K80">
-        <v>0.0008673410822486167</v>
+        <v>0.000877211609232754</v>
       </c>
       <c r="L80">
         <v>1</v>
@@ -12735,13 +12855,13 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB80" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AC80">
-        <v>0.0009202114376092567</v>
+        <v>0.009489449087462017</v>
       </c>
       <c r="AD80">
         <v>1</v>
@@ -12759,13 +12879,13 @@
         <v>0</v>
       </c>
       <c r="AI80">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AT80" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AU80">
-        <v>0.0072552098713932</v>
+        <v>0.009966513215798925</v>
       </c>
       <c r="AV80">
         <v>1</v>
@@ -12783,13 +12903,13 @@
         <v>0</v>
       </c>
       <c r="BA80">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BL80" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="BM80">
-        <v>0.007960786760399534</v>
+        <v>0.01017104525099806</v>
       </c>
       <c r="BN80">
         <v>1</v>
@@ -12807,15 +12927,15 @@
         <v>0</v>
       </c>
       <c r="BS80">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="10:71">
       <c r="J81" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K81">
-        <v>0.0008673410822486167</v>
+        <v>0.000877211609232754</v>
       </c>
       <c r="L81">
         <v>1</v>
@@ -12833,13 +12953,13 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB81" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AC81">
-        <v>0.0009202114376092567</v>
+        <v>0.009489449087462017</v>
       </c>
       <c r="AD81">
         <v>1</v>
@@ -12857,13 +12977,13 @@
         <v>0</v>
       </c>
       <c r="AI81">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AT81" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AU81">
-        <v>0.0072552098713932</v>
+        <v>0.009966513215798925</v>
       </c>
       <c r="AV81">
         <v>1</v>
@@ -12881,13 +13001,13 @@
         <v>0</v>
       </c>
       <c r="BA81">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BL81" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="BM81">
-        <v>0.007960786760399534</v>
+        <v>0.01017104525099806</v>
       </c>
       <c r="BN81">
         <v>1</v>
@@ -12905,15 +13025,15 @@
         <v>0</v>
       </c>
       <c r="BS81">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="10:71">
       <c r="J82" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K82">
-        <v>0.0008673410822486167</v>
+        <v>0.000877211609232754</v>
       </c>
       <c r="L82">
         <v>1</v>
@@ -12931,13 +13051,13 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB82" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AC82">
-        <v>0.0009202114376092567</v>
+        <v>0.009489449087462017</v>
       </c>
       <c r="AD82">
         <v>1</v>
@@ -12955,13 +13075,13 @@
         <v>0</v>
       </c>
       <c r="AI82">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AT82" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AU82">
-        <v>0.0072552098713932</v>
+        <v>0.009966513215798925</v>
       </c>
       <c r="AV82">
         <v>1</v>
@@ -12979,13 +13099,13 @@
         <v>0</v>
       </c>
       <c r="BA82">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BL82" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="BM82">
-        <v>0.007960786760399534</v>
+        <v>0.01017104525099806</v>
       </c>
       <c r="BN82">
         <v>1</v>
@@ -13003,15 +13123,15 @@
         <v>0</v>
       </c>
       <c r="BS82">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="10:71">
       <c r="J83" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K83">
-        <v>0.0008519367176786552</v>
+        <v>0.000877211609232754</v>
       </c>
       <c r="L83">
         <v>1</v>
@@ -13029,13 +13149,13 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AB83" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AC83">
-        <v>0.0008470407059019396</v>
+        <v>0.009489449087462017</v>
       </c>
       <c r="AD83">
         <v>1</v>
@@ -13053,13 +13173,13 @@
         <v>0</v>
       </c>
       <c r="AI83">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AT83" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AU83">
-        <v>0.006449075441238399</v>
+        <v>0.009901795597514517</v>
       </c>
       <c r="AV83">
         <v>1</v>
@@ -13077,13 +13197,13 @@
         <v>0</v>
       </c>
       <c r="BA83">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BL83" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="BM83">
-        <v>0.00707625489813292</v>
+        <v>0.01010499950261496</v>
       </c>
       <c r="BN83">
         <v>1</v>
@@ -13101,15 +13221,15 @@
         <v>0</v>
       </c>
       <c r="BS83">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="10:71">
       <c r="J84" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K84">
-        <v>0.0008519367176786552</v>
+        <v>0.000872072810272847</v>
       </c>
       <c r="L84">
         <v>1</v>
@@ -13127,13 +13247,13 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AB84" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AC84">
-        <v>0.0008470407059019396</v>
+        <v>0.009427829288192783</v>
       </c>
       <c r="AD84">
         <v>1</v>
@@ -13151,13 +13271,13 @@
         <v>0</v>
       </c>
       <c r="AI84">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AT84" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AU84">
-        <v>0.006449075441238399</v>
+        <v>0.009901795597514517</v>
       </c>
       <c r="AV84">
         <v>1</v>
@@ -13175,13 +13295,13 @@
         <v>0</v>
       </c>
       <c r="BA84">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BL84" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="BM84">
-        <v>0.00707625489813292</v>
+        <v>0.01010499950261496</v>
       </c>
       <c r="BN84">
         <v>1</v>
@@ -13199,15 +13319,15 @@
         <v>0</v>
       </c>
       <c r="BS84">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="10:71">
       <c r="J85" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K85">
-        <v>0.000846801929488668</v>
+        <v>0.000872072810272847</v>
       </c>
       <c r="L85">
         <v>1</v>
@@ -13225,13 +13345,13 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AB85" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AC85">
-        <v>0.0008226504619995006</v>
+        <v>0.009427829288192783</v>
       </c>
       <c r="AD85">
         <v>1</v>
@@ -13249,13 +13369,13 @@
         <v>0</v>
       </c>
       <c r="AI85">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AT85" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AU85">
-        <v>0.006180363964520133</v>
+        <v>0.009901795597514517</v>
       </c>
       <c r="AV85">
         <v>1</v>
@@ -13273,13 +13393,13 @@
         <v>0</v>
       </c>
       <c r="BA85">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BL85" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="BM85">
-        <v>0.006781410944044049</v>
+        <v>0.01010499950261496</v>
       </c>
       <c r="BN85">
         <v>1</v>
@@ -13297,15 +13417,15 @@
         <v>0</v>
       </c>
       <c r="BS85">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="10:71">
       <c r="J86" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K86">
-        <v>0.0008416671412986808</v>
+        <v>0.000872072810272847</v>
       </c>
       <c r="L86">
         <v>1</v>
@@ -13323,13 +13443,13 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AB86" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC86">
-        <v>0.0007982602180970615</v>
+        <v>0.009427829288192783</v>
       </c>
       <c r="AD86">
         <v>1</v>
@@ -13347,13 +13467,13 @@
         <v>0</v>
       </c>
       <c r="AI86">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AT86" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AU86">
-        <v>0.005911652487801866</v>
+        <v>0.009837077979230108</v>
       </c>
       <c r="AV86">
         <v>1</v>
@@ -13371,13 +13491,13 @@
         <v>0</v>
       </c>
       <c r="BA86">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BL86" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="BM86">
-        <v>0.006486566989955177</v>
+        <v>0.01003895375423185</v>
       </c>
       <c r="BN86">
         <v>1</v>
@@ -13395,15 +13515,15 @@
         <v>0</v>
       </c>
       <c r="BS86">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="10:71">
       <c r="J87" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K87">
-        <v>0.0008313975649187065</v>
+        <v>0.0008669340113129399</v>
       </c>
       <c r="L87">
         <v>1</v>
@@ -13421,13 +13541,13 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AB87" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AC87">
-        <v>0.0007494797302921835</v>
+        <v>0.00936620948892355</v>
       </c>
       <c r="AD87">
         <v>1</v>
@@ -13445,13 +13565,13 @@
         <v>0</v>
       </c>
       <c r="AI87">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AT87" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AU87">
-        <v>0.005374229534365333</v>
+        <v>0.009837077979230108</v>
       </c>
       <c r="AV87">
         <v>1</v>
@@ -13469,13 +13589,13 @@
         <v>0</v>
       </c>
       <c r="BA87">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="BL87" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="BM87">
-        <v>0.005896879081777434</v>
+        <v>0.01003895375423185</v>
       </c>
       <c r="BN87">
         <v>1</v>
@@ -13493,15 +13613,15 @@
         <v>0</v>
       </c>
       <c r="BS87">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="10:71">
       <c r="J88" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K88">
-        <v>0.0008108584121587578</v>
+        <v>0.0008669340113129399</v>
       </c>
       <c r="L88">
         <v>1</v>
@@ -13519,13 +13639,13 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="AB88" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AC88">
-        <v>0.0006519187546824275</v>
+        <v>0.00936620948892355</v>
       </c>
       <c r="AD88">
         <v>1</v>
@@ -13543,13 +13663,13 @@
         <v>0</v>
       </c>
       <c r="AI88">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="AT88" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AU88">
-        <v>0.004299383627492266</v>
+        <v>0.009707642742661291</v>
       </c>
       <c r="AV88">
         <v>1</v>
@@ -13567,13 +13687,13 @@
         <v>0</v>
       </c>
       <c r="BA88">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="BL88" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="BM88">
-        <v>0.004717503265421947</v>
+        <v>0.009906862257465643</v>
       </c>
       <c r="BN88">
         <v>1</v>
@@ -13591,15 +13711,15 @@
         <v>0</v>
       </c>
       <c r="BS88">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89" spans="10:71">
       <c r="J89" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K89">
-        <v>0.0007646453184488733</v>
+        <v>0.0008566564133931256</v>
       </c>
       <c r="L89">
         <v>1</v>
@@ -13617,13 +13737,13 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="AB89" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AC89">
-        <v>0.0004324065595604763</v>
+        <v>0.009242969890385082</v>
       </c>
       <c r="AD89">
         <v>1</v>
@@ -13641,13 +13761,13 @@
         <v>0</v>
       </c>
       <c r="AI89">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="AT89" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AU89">
-        <v>0.001880980337027866</v>
+        <v>0.009642925124376882</v>
       </c>
       <c r="AV89">
         <v>1</v>
@@ -13665,13 +13785,13 @@
         <v>0</v>
       </c>
       <c r="BA89">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="BL89" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="BM89">
-        <v>0.002063907678622101</v>
+        <v>0.009840816509082541</v>
       </c>
       <c r="BN89">
         <v>1</v>
@@ -13689,15 +13809,15 @@
         <v>0</v>
       </c>
       <c r="BS89">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="10:71">
       <c r="J90" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K90">
-        <v>0.0007287018011189632</v>
+        <v>0.0008515176144332186</v>
       </c>
       <c r="L90">
         <v>1</v>
@@ -13715,79 +13835,765 @@
         <v>0</v>
       </c>
       <c r="Q90">
+        <v>8</v>
+      </c>
+      <c r="AB90" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC90">
+        <v>0.009181350091115847</v>
+      </c>
+      <c r="AD90">
+        <v>1</v>
+      </c>
+      <c r="AE90">
+        <v>1</v>
+      </c>
+      <c r="AF90">
+        <v>1</v>
+      </c>
+      <c r="AG90">
+        <v>0</v>
+      </c>
+      <c r="AH90" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI90">
+        <v>8</v>
+      </c>
+      <c r="AT90" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AU90">
+        <v>0.009642925124376882</v>
+      </c>
+      <c r="AV90">
+        <v>1</v>
+      </c>
+      <c r="AW90">
+        <v>1</v>
+      </c>
+      <c r="AX90">
+        <v>1</v>
+      </c>
+      <c r="AY90">
+        <v>0</v>
+      </c>
+      <c r="AZ90" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA90">
+        <v>8</v>
+      </c>
+      <c r="BL90" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BM90">
+        <v>0.009840816509082541</v>
+      </c>
+      <c r="BN90">
+        <v>1</v>
+      </c>
+      <c r="BO90">
+        <v>1</v>
+      </c>
+      <c r="BP90">
+        <v>1</v>
+      </c>
+      <c r="BQ90">
+        <v>0</v>
+      </c>
+      <c r="BR90" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS90">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="10:71">
+      <c r="J91" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K91">
+        <v>0.0008515176144332186</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+      <c r="N91">
+        <v>1</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="P91" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>8</v>
+      </c>
+      <c r="AB91" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC91">
+        <v>0.009181350091115847</v>
+      </c>
+      <c r="AD91">
+        <v>1</v>
+      </c>
+      <c r="AE91">
+        <v>1</v>
+      </c>
+      <c r="AF91">
+        <v>1</v>
+      </c>
+      <c r="AG91">
+        <v>0</v>
+      </c>
+      <c r="AH91" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI91">
+        <v>8</v>
+      </c>
+      <c r="AT91" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AU91">
+        <v>0.009578207506092474</v>
+      </c>
+      <c r="AV91">
+        <v>1</v>
+      </c>
+      <c r="AW91">
+        <v>1</v>
+      </c>
+      <c r="AX91">
+        <v>1</v>
+      </c>
+      <c r="AY91">
+        <v>0</v>
+      </c>
+      <c r="AZ91" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA91">
+        <v>9</v>
+      </c>
+      <c r="BL91" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BM91">
+        <v>0.009774770760699436</v>
+      </c>
+      <c r="BN91">
+        <v>1</v>
+      </c>
+      <c r="BO91">
+        <v>1</v>
+      </c>
+      <c r="BP91">
+        <v>1</v>
+      </c>
+      <c r="BQ91">
+        <v>0</v>
+      </c>
+      <c r="BR91" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS91">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="10:71">
+      <c r="J92" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K92">
+        <v>0.0008463788154733116</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+      <c r="N92">
+        <v>1</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="P92" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q92">
+        <v>9</v>
+      </c>
+      <c r="AB92" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC92">
+        <v>0.009119730291846614</v>
+      </c>
+      <c r="AD92">
+        <v>1</v>
+      </c>
+      <c r="AE92">
+        <v>1</v>
+      </c>
+      <c r="AF92">
+        <v>1</v>
+      </c>
+      <c r="AG92">
+        <v>0</v>
+      </c>
+      <c r="AH92" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI92">
+        <v>9</v>
+      </c>
+      <c r="AT92" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU92">
+        <v>0.009446032169328246</v>
+      </c>
+      <c r="AV92">
+        <v>3</v>
+      </c>
+      <c r="AW92">
+        <v>3</v>
+      </c>
+      <c r="AX92">
+        <v>1</v>
+      </c>
+      <c r="AY92">
+        <v>0</v>
+      </c>
+      <c r="AZ92" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA92">
+        <v>36</v>
+      </c>
+      <c r="BL92" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="BM92">
+        <v>0.009378496270400811</v>
+      </c>
+      <c r="BN92">
+        <v>1</v>
+      </c>
+      <c r="BO92">
+        <v>1</v>
+      </c>
+      <c r="BP92">
+        <v>1</v>
+      </c>
+      <c r="BQ92">
+        <v>0</v>
+      </c>
+      <c r="BR92" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS92">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="10:71">
+      <c r="J93" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K93">
+        <v>0.0008155460217138689</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+      <c r="N93">
+        <v>1</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+      <c r="P93" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <v>15</v>
+      </c>
+      <c r="AB93" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC93">
+        <v>0.008750011496231211</v>
+      </c>
+      <c r="AD93">
+        <v>1</v>
+      </c>
+      <c r="AE93">
+        <v>1</v>
+      </c>
+      <c r="AF93">
+        <v>1</v>
+      </c>
+      <c r="AG93">
+        <v>0</v>
+      </c>
+      <c r="AH93" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI93">
+        <v>15</v>
+      </c>
+      <c r="AT93" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU93">
+        <v>0.009189901796386022</v>
+      </c>
+      <c r="AV93">
+        <v>1</v>
+      </c>
+      <c r="AW93">
+        <v>1</v>
+      </c>
+      <c r="AX93">
+        <v>1</v>
+      </c>
+      <c r="AY93">
+        <v>0</v>
+      </c>
+      <c r="AZ93" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA93">
+        <v>15</v>
+      </c>
+      <c r="BL93" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="BM93">
+        <v>0.009312450522017705</v>
+      </c>
+      <c r="BN93">
+        <v>1</v>
+      </c>
+      <c r="BO93">
+        <v>1</v>
+      </c>
+      <c r="BP93">
+        <v>1</v>
+      </c>
+      <c r="BQ93">
+        <v>0</v>
+      </c>
+      <c r="BR93" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS93">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="10:71">
+      <c r="J94" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K94">
+        <v>0.0008104072227539618</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+      <c r="N94">
+        <v>1</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+      <c r="P94" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q94">
+        <v>16</v>
+      </c>
+      <c r="AB94" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC94">
+        <v>0.008688391696961976</v>
+      </c>
+      <c r="AD94">
+        <v>1</v>
+      </c>
+      <c r="AE94">
+        <v>1</v>
+      </c>
+      <c r="AF94">
+        <v>1</v>
+      </c>
+      <c r="AG94">
+        <v>0</v>
+      </c>
+      <c r="AH94" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI94">
+        <v>16</v>
+      </c>
+      <c r="AT94" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AU94">
+        <v>0.009125184178101613</v>
+      </c>
+      <c r="AV94">
+        <v>1</v>
+      </c>
+      <c r="AW94">
+        <v>1</v>
+      </c>
+      <c r="AX94">
+        <v>1</v>
+      </c>
+      <c r="AY94">
+        <v>0</v>
+      </c>
+      <c r="AZ94" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA94">
+        <v>16</v>
+      </c>
+      <c r="BL94" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BM94">
+        <v>0.009145378718431961</v>
+      </c>
+      <c r="BN94">
+        <v>3</v>
+      </c>
+      <c r="BO94">
+        <v>3</v>
+      </c>
+      <c r="BP94">
+        <v>1</v>
+      </c>
+      <c r="BQ94">
+        <v>0</v>
+      </c>
+      <c r="BR94" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS94">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="95" spans="10:71">
+      <c r="J95" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K95">
+        <v>0.0007281864393954482</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+      <c r="N95">
+        <v>1</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+      <c r="P95" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q95">
         <v>32</v>
       </c>
-      <c r="AB90" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC90">
-        <v>0.0002616748522434032</v>
-      </c>
-      <c r="AD90">
-        <v>1</v>
-      </c>
-      <c r="AE90">
-        <v>1</v>
-      </c>
-      <c r="AF90">
-        <v>1</v>
-      </c>
-      <c r="AG90">
-        <v>0</v>
-      </c>
-      <c r="AH90" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI90">
+      <c r="AB95" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC95">
+        <v>0.007702474908654235</v>
+      </c>
+      <c r="AD95">
+        <v>1</v>
+      </c>
+      <c r="AE95">
+        <v>1</v>
+      </c>
+      <c r="AF95">
+        <v>1</v>
+      </c>
+      <c r="AG95">
+        <v>0</v>
+      </c>
+      <c r="AH95" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI95">
         <v>32</v>
       </c>
-      <c r="AT90" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AU90">
-        <v>0</v>
-      </c>
-      <c r="AV90">
-        <v>1</v>
-      </c>
-      <c r="AW90">
-        <v>1</v>
-      </c>
-      <c r="AX90">
-        <v>1</v>
-      </c>
-      <c r="AY90">
-        <v>0</v>
-      </c>
-      <c r="AZ90" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA90">
+      <c r="AT95" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AU95">
+        <v>0.008089702285551075</v>
+      </c>
+      <c r="AV95">
+        <v>1</v>
+      </c>
+      <c r="AW95">
+        <v>1</v>
+      </c>
+      <c r="AX95">
+        <v>1</v>
+      </c>
+      <c r="AY95">
+        <v>0</v>
+      </c>
+      <c r="AZ95" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA95">
         <v>32</v>
       </c>
-      <c r="BL90" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="BM90">
-        <v>0</v>
-      </c>
-      <c r="BN90">
-        <v>1</v>
-      </c>
-      <c r="BO90">
-        <v>1</v>
-      </c>
-      <c r="BP90">
-        <v>1</v>
-      </c>
-      <c r="BQ90">
-        <v>0</v>
-      </c>
-      <c r="BR90" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS90">
+      <c r="BL95" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="BM95">
+        <v>0.008255718547888037</v>
+      </c>
+      <c r="BN95">
+        <v>1</v>
+      </c>
+      <c r="BO95">
+        <v>1</v>
+      </c>
+      <c r="BP95">
+        <v>1</v>
+      </c>
+      <c r="BQ95">
+        <v>0</v>
+      </c>
+      <c r="BR95" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS95">
         <v>32</v>
+      </c>
+    </row>
+    <row r="96" spans="10:71">
+      <c r="J96" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K96">
+        <v>0.0003170825226028806</v>
+      </c>
+      <c r="L96">
+        <v>1</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+      <c r="N96">
+        <v>1</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+      <c r="P96" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q96">
+        <v>112</v>
+      </c>
+      <c r="AB96" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC96">
+        <v>0.002772890967115524</v>
+      </c>
+      <c r="AD96">
+        <v>1</v>
+      </c>
+      <c r="AE96">
+        <v>1</v>
+      </c>
+      <c r="AF96">
+        <v>1</v>
+      </c>
+      <c r="AG96">
+        <v>0</v>
+      </c>
+      <c r="AH96" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI96">
+        <v>112</v>
+      </c>
+      <c r="AT96" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AU96">
+        <v>0.002912292822798388</v>
+      </c>
+      <c r="AV96">
+        <v>1</v>
+      </c>
+      <c r="AW96">
+        <v>1</v>
+      </c>
+      <c r="AX96">
+        <v>1</v>
+      </c>
+      <c r="AY96">
+        <v>0</v>
+      </c>
+      <c r="AZ96" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA96">
+        <v>112</v>
+      </c>
+      <c r="BL96" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BM96">
+        <v>0.002972058677239693</v>
+      </c>
+      <c r="BN96">
+        <v>1</v>
+      </c>
+      <c r="BO96">
+        <v>1</v>
+      </c>
+      <c r="BP96">
+        <v>1</v>
+      </c>
+      <c r="BQ96">
+        <v>0</v>
+      </c>
+      <c r="BR96" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS96">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="97" spans="10:71">
+      <c r="J97" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K97">
+        <v>8.583656940706135E-05</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
+      <c r="M97">
+        <v>1</v>
+      </c>
+      <c r="N97">
+        <v>1</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+      <c r="P97" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <v>157</v>
+      </c>
+      <c r="AB97" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC97">
+        <v>0</v>
+      </c>
+      <c r="AD97">
+        <v>1</v>
+      </c>
+      <c r="AE97">
+        <v>1</v>
+      </c>
+      <c r="AF97">
+        <v>1</v>
+      </c>
+      <c r="AG97">
+        <v>0</v>
+      </c>
+      <c r="AH97" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI97">
+        <v>157</v>
+      </c>
+      <c r="AT97" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AU97">
+        <v>0</v>
+      </c>
+      <c r="AV97">
+        <v>1</v>
+      </c>
+      <c r="AW97">
+        <v>1</v>
+      </c>
+      <c r="AX97">
+        <v>1</v>
+      </c>
+      <c r="AY97">
+        <v>0</v>
+      </c>
+      <c r="AZ97" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA97">
+        <v>157</v>
+      </c>
+      <c r="BL97" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="BM97">
+        <v>0</v>
+      </c>
+      <c r="BN97">
+        <v>1</v>
+      </c>
+      <c r="BO97">
+        <v>1</v>
+      </c>
+      <c r="BP97">
+        <v>1</v>
+      </c>
+      <c r="BQ97">
+        <v>0</v>
+      </c>
+      <c r="BR97" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS97">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
